--- a/metrics_build/metrics_models.xlsx
+++ b/metrics_build/metrics_models.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8332AD-06E4-4CCC-8320-45659FBB6D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2FC18D-34FF-4A1D-9BC7-D19C92625C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview_train" sheetId="2" r:id="rId1"/>
-    <sheet name="Overview_test" sheetId="4" r:id="rId2"/>
-    <sheet name="Model_1_2d_train" sheetId="1" r:id="rId3"/>
-    <sheet name="Model_1_2d_test" sheetId="3" r:id="rId4"/>
-    <sheet name="Model_2_2d_train" sheetId="5" r:id="rId5"/>
-    <sheet name="Model_2_2d_test" sheetId="6" r:id="rId6"/>
+    <sheet name="Overview train" sheetId="2" r:id="rId1"/>
+    <sheet name="Overview test" sheetId="4" r:id="rId2"/>
+    <sheet name="Model 1 2D train" sheetId="1" r:id="rId3"/>
+    <sheet name="Model 1 2D test" sheetId="3" r:id="rId4"/>
+    <sheet name="Model 2 2D train" sheetId="5" r:id="rId5"/>
+    <sheet name="Model 2 2D test" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="96">
   <si>
     <t>lumen</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t xml:space="preserve">catheter </t>
+  </si>
+  <si>
+    <t>Model3_2d</t>
   </si>
 </sst>
 </file>
@@ -347,11 +350,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -370,6 +368,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,20 +469,17 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -487,11 +488,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="47">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1370,7 +1394,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>DICE scores average</a:t>
+              <a:t>DICE scores average (computed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> frame-level)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1414,6 +1442,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Model 1 2D</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1426,7 +1457,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overview_train!$H$1:$S$1</c:f>
+              <c:f>'Overview train'!$H$1:$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1470,7 +1501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview_train!$H$2:$S$2</c:f>
+              <c:f>'Overview train'!$H$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1647,6 +1678,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1723,9 +1785,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> average test</a:t>
+              <a:t> average test (computed frame-level)</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1768,6 +1829,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Model 1 2D</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1780,7 +1844,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overview_test!$E$1:$P$1</c:f>
+              <c:f>'Overview test'!$E$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1824,7 +1888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview_test!$E$2:$P$2</c:f>
+              <c:f>'Overview test'!$E$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1877,7 +1941,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Model2_2d</c:v>
+            <c:v>Model 2 2D</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1891,7 +1955,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Overview_test!$E$3:$P$3</c:f>
+              <c:f>'Overview test'!$E$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3228,14 +3292,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>46672</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3269,14 +3333,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>112395</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>952</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1021080</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3305,66 +3369,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}" name="Table1" displayName="Table1" ref="A1:M57" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6D864E62-098E-4195-A0B5-CD4E5F137209}" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0">
+  <autoFilter ref="A1:S4" xr:uid="{6D864E62-098E-4195-A0B5-CD4E5F137209}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{CB851FAA-C8DF-489C-B74F-A785522F1BAA}" name="Date " dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{85F88159-E34A-4985-89CD-9634CE0918BE}" name="Nº patients"/>
+    <tableColumn id="3" xr3:uid="{6ADEAA0E-4A60-4D02-B376-309CF4107C90}" name="Nº pullback"/>
+    <tableColumn id="4" xr3:uid="{5FBB4B28-FE4D-4C7D-856F-93AFC1DE489B}" name="Nº frames"/>
+    <tableColumn id="5" xr3:uid="{1C304F7A-59B2-4026-89D9-827EABECD74F}" name="Name"/>
+    <tableColumn id="6" xr3:uid="{0ADE80C8-C768-449B-8B70-AE42D8D02B37}" name="Algorithm"/>
+    <tableColumn id="7" xr3:uid="{E52857B0-2A36-4834-8E6A-00FF15D56A8D}" name="Runtime (h/fold)"/>
+    <tableColumn id="8" xr3:uid="{92315B0E-A410-4735-8C68-FE38FF31E02E}" name="lumen"/>
+    <tableColumn id="9" xr3:uid="{B5F01D9A-EA14-40AF-B78F-6335ACEB3B34}" name="guidewire"/>
+    <tableColumn id="10" xr3:uid="{571006B2-A994-4806-A7E8-2166796F5B5F}" name="wall"/>
+    <tableColumn id="11" xr3:uid="{31554BA6-BB68-4D9C-9EA8-DB3C99767A98}" name="lipid"/>
+    <tableColumn id="12" xr3:uid="{14EABB5D-51C5-422C-94D0-9F2F69E89795}" name="calcium"/>
+    <tableColumn id="13" xr3:uid="{17C739AF-559D-4AB1-8FE8-7BD335F8C041}" name="media"/>
+    <tableColumn id="14" xr3:uid="{27664423-E417-4938-B7E7-1C26434FE24D}" name="catheter"/>
+    <tableColumn id="15" xr3:uid="{35C2D491-504D-4D37-BB01-50296E98A793}" name="sidebranch"/>
+    <tableColumn id="16" xr3:uid="{87FDC493-63C2-4F9B-9288-3A04B89B8ED3}" name="rthrombus"/>
+    <tableColumn id="17" xr3:uid="{416950A2-A548-468F-9935-2D5229DE69D8}" name="wthrombus"/>
+    <tableColumn id="18" xr3:uid="{244752CD-2946-4941-8FB3-FCC36F84164A}" name="dissection"/>
+    <tableColumn id="19" xr3:uid="{08C5A924-4D2D-4634-AAC4-25DE44EF59FE}" name="rupture"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}" name="Table4" displayName="Table4" ref="A1:P4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:P4" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{90A29A87-F39F-4144-92E9-53073D9307DE}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{B4C9C7AD-9FDC-46A8-8959-A5FF58D423F9}" name="Nº patients"/>
+    <tableColumn id="3" xr3:uid="{E71A19AE-935E-4444-90EA-40B856A2B838}" name="Nº pullback"/>
+    <tableColumn id="4" xr3:uid="{30A2A5A3-D4E3-42F0-93EF-28F811B3B91C}" name="Nº frames"/>
+    <tableColumn id="5" xr3:uid="{0FA96BEC-63A7-45C3-B38F-C8B78A8E76DB}" name="lumen"/>
+    <tableColumn id="6" xr3:uid="{73F78F0D-E49C-47EB-BFD8-765CEEA448F3}" name="guidewire"/>
+    <tableColumn id="7" xr3:uid="{05DBFA82-6F12-4484-BAFE-B94517F25323}" name="wall"/>
+    <tableColumn id="8" xr3:uid="{1027DEA6-AC99-48AD-A053-5FE92712ED03}" name="lipid"/>
+    <tableColumn id="9" xr3:uid="{82365F9E-72A0-4465-80AA-4699935FD343}" name="calcium"/>
+    <tableColumn id="10" xr3:uid="{AA084ED3-084E-4571-9ADD-E0645984CADC}" name="media"/>
+    <tableColumn id="11" xr3:uid="{302682F9-D97D-4C47-AFAF-CAF1B1F5DA46}" name="catheter"/>
+    <tableColumn id="12" xr3:uid="{6FA0607D-2B35-4271-AE37-BEF373AAAD6E}" name="sidebranch"/>
+    <tableColumn id="13" xr3:uid="{3ED6382D-4F04-437E-AECD-3FA58E9B46AC}" name="rthrombus"/>
+    <tableColumn id="14" xr3:uid="{670D344B-6512-4633-9126-EB4AC6FE4E13}" name="wthrombus"/>
+    <tableColumn id="15" xr3:uid="{F62A6E45-FB7C-40B2-BCAB-99B1CCFDD322}" name="dissection"/>
+    <tableColumn id="16" xr3:uid="{5D476CD1-C5FA-46E7-A6DB-511955E8125A}" name="rupture"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}" name="Table1" displayName="Table1" ref="A1:M57" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:M57" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E9A2664F-949A-461C-8632-250D14F2C760}" name="pullback" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{81AEE817-74D0-4CC5-A299-1597C836BDBE}" name="lumen" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{CC602F98-37A3-4361-A848-D4CBB9948033}" name="guidewire" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{CA810748-2336-49F3-A8D0-2B7B9306BAF9}" name="wall" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{8DFD2D26-06D4-47D5-9BAC-FB0E075CF24D}" name="lipid" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{98114F9F-8129-46BC-B902-B4802F5C3F62}" name="calcium" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{A5277F3D-4D0C-4DCD-9B04-F78B100B7B46}" name="media" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{B278FC61-31A9-46DA-8014-B1A03111CBE1}" name="catheter" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{34BCDEB6-E89F-4CEA-A102-13F76A35F32B}" name="sidebranch" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{3E093B54-A5C8-4AA5-AC76-8E77A7F90417}" name="rthrombus" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{06AD8942-98FD-4AD4-978C-773935D494DD}" name="wthrombus" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{89DFF757-FFCD-4EF8-B173-ECCA43FEFCDA}" name="dissection" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{937B4B65-7E4A-40CE-915C-BC92DE18744F}" name="rupture" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{E9A2664F-949A-461C-8632-250D14F2C760}" name="pullback" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{81AEE817-74D0-4CC5-A299-1597C836BDBE}" name="lumen" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{CC602F98-37A3-4361-A848-D4CBB9948033}" name="guidewire" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{CA810748-2336-49F3-A8D0-2B7B9306BAF9}" name="wall" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{8DFD2D26-06D4-47D5-9BAC-FB0E075CF24D}" name="lipid" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{98114F9F-8129-46BC-B902-B4802F5C3F62}" name="calcium" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{A5277F3D-4D0C-4DCD-9B04-F78B100B7B46}" name="media" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{B278FC61-31A9-46DA-8014-B1A03111CBE1}" name="catheter" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{34BCDEB6-E89F-4CEA-A102-13F76A35F32B}" name="sidebranch" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{3E093B54-A5C8-4AA5-AC76-8E77A7F90417}" name="rthrombus" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{06AD8942-98FD-4AD4-978C-773935D494DD}" name="wthrombus" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{89DFF757-FFCD-4EF8-B173-ECCA43FEFCDA}" name="dissection" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{937B4B65-7E4A-40CE-915C-BC92DE18744F}" name="rupture" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}" name="Table2" displayName="Table2" ref="A1:M15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}" name="Table2" displayName="Table2" ref="A1:M15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:M15" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{316127D1-C863-4B75-9F74-072A0EE7405D}" name="pullback" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{9917C3EA-1C30-4BB0-91BC-48A2C3F8AFF5}" name="lumen" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{F37756C4-C13F-4ABC-8F21-0A72F1FA98D2}" name="guidewire" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{9A440BE1-2FCC-4C1C-916B-D894C470B6B7}" name="wall" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{90A106DF-CBBB-4E1B-9026-756AB13879A6}" name="lipid" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{70B62D4F-EAAA-46FD-994B-F4364B457A1D}" name="calcium" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{6CE2743C-C32C-4504-8C4F-E40C2027E306}" name="media" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{D3DEF3C0-1F65-406B-9D99-0DE216BEE211}" name="catheter" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{C7283D77-8600-4E6C-B317-9A59BCE8D515}" name="sidebranch" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{91A8B186-D5BD-4AE0-8C58-C229065A6C5C}" name="rthrombus" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{76A5940A-8A23-49C0-AF19-32FC5B8C6026}" name="wthrombus" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{024AC4E6-3A31-4405-9CFF-1C14722ED33B}" name="dissection" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{52163E12-701F-493C-A10C-56018D37AB50}" name="rupture" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{316127D1-C863-4B75-9F74-072A0EE7405D}" name="pullback" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9917C3EA-1C30-4BB0-91BC-48A2C3F8AFF5}" name="lumen" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{F37756C4-C13F-4ABC-8F21-0A72F1FA98D2}" name="guidewire" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{9A440BE1-2FCC-4C1C-916B-D894C470B6B7}" name="wall" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{90A106DF-CBBB-4E1B-9026-756AB13879A6}" name="lipid" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{70B62D4F-EAAA-46FD-994B-F4364B457A1D}" name="calcium" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{6CE2743C-C32C-4504-8C4F-E40C2027E306}" name="media" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{D3DEF3C0-1F65-406B-9D99-0DE216BEE211}" name="catheter" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{C7283D77-8600-4E6C-B317-9A59BCE8D515}" name="sidebranch" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{91A8B186-D5BD-4AE0-8C58-C229065A6C5C}" name="rthrombus" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{76A5940A-8A23-49C0-AF19-32FC5B8C6026}" name="wthrombus" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{024AC4E6-3A31-4405-9CFF-1C14722ED33B}" name="dissection" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{52163E12-701F-493C-A10C-56018D37AB50}" name="rupture" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}" name="Table5" displayName="Table5" ref="A1:M15" totalsRowShown="0" dataDxfId="14" tableBorderDxfId="13">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}" name="Table5" displayName="Table5" ref="A1:M15" totalsRowShown="0" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:M15" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C128ADB3-417E-4B33-B9AC-183C00C3BBF2}" name="pullback" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{3D6EDBE2-1704-4CB9-8FA4-ED2A34B17FC7}" name="lumen" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{85D9E7B3-F999-4314-85EC-BBCB52496EF3}" name="guidewire" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{2539DB42-1562-4280-B0F3-A727C96420FD}" name="wall" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{A900E6A3-1793-48C5-8F67-E4C600780439}" name="lipid" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{734B0EEB-8837-40BE-813C-A788E002083C}" name="calcium" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{94B0780D-AAE2-4C61-8BBA-F9E614D0F10D}" name="media" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{7697724D-B627-4CF4-874C-27D754107670}" name="catheter " dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{B66D6827-A46E-4E14-BCE4-9ABB230D315F}" name="sidebranch" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{DE5BCFF8-5228-4E56-8FA5-C9059DDB0451}" name="rthrombus" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{398234A1-F3B6-483F-A686-53D001AEA431}" name="wthrombus" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{671E6709-7864-44EF-B8BA-EDA68F3BA772}" name="dissection" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B5138DD1-E1D8-40D0-8062-E69F345E2FC3}" name="rupture" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C128ADB3-417E-4B33-B9AC-183C00C3BBF2}" name="pullback" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3D6EDBE2-1704-4CB9-8FA4-ED2A34B17FC7}" name="lumen" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{85D9E7B3-F999-4314-85EC-BBCB52496EF3}" name="guidewire" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{2539DB42-1562-4280-B0F3-A727C96420FD}" name="wall" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{A900E6A3-1793-48C5-8F67-E4C600780439}" name="lipid" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{734B0EEB-8837-40BE-813C-A788E002083C}" name="calcium" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{94B0780D-AAE2-4C61-8BBA-F9E614D0F10D}" name="media" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{7697724D-B627-4CF4-874C-27D754107670}" name="catheter " dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{B66D6827-A46E-4E14-BCE4-9ABB230D315F}" name="sidebranch" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{DE5BCFF8-5228-4E56-8FA5-C9059DDB0451}" name="rthrombus" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{398234A1-F3B6-483F-A686-53D001AEA431}" name="wthrombus" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{671E6709-7864-44EF-B8BA-EDA68F3BA772}" name="dissection" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B5138DD1-E1D8-40D0-8062-E69F345E2FC3}" name="rupture" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3655,25 +3772,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA23CB-B751-4FDE-81A8-35F4E0666855}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3695,52 +3820,52 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>44970</v>
       </c>
       <c r="B2">
         <v>49</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>783</v>
@@ -3804,14 +3929,14 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>44982</v>
       </c>
       <c r="B3">
         <v>75</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>1215</v>
@@ -3826,79 +3951,104 @@
         <v>48</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1649</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AD1015-D7A8-4F03-8F88-B7CFB2DFA92A}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4026,9 +4176,26 @@
         <v>0.36852101685108296</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4042,2811 +4209,2811 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.73079088254991653</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.70915910746130184</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.68309177643949759</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.39385019838957791</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.12439610214283864</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.58422777808419768</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.74452307779352878</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>1.1428571428571429E-2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.33324277336383068</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>3.6974789915966387E-2</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
         <v>0.54951334098522275</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.61267000231662161</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.5542243661698586</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.55832803958245225</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>9.7754422804736077E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.27295665120609114</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.51310564758717525</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.54466551309157918</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.98718569876713702</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.94012829273897558</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.91037529557200036</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.8011275828961324</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.29638759031024225</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.85481575906835194</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.99174457825132001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.28398520676902389</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="J4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.97678484508869123</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.93880685283844156</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.9335603178169658</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.7171922566453397</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.8391282448407732</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.99218127358173425</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.68948762679554709</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="J5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.98841435055014282</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.92520616222950181</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.89047687193396619</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.55809821923710556</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.70040755190350723</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.99238364944744895</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>5.1467784979031643E-2</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.6376811594202898</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="L6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="4">
         <v>0.77761836441893828</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.96799572011680224</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.907196101328546</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.86750621343543777</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.48878765338791696</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.51930788416227469</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.73375569624973647</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.99399836164890276</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.77048933242629603</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.64544111976322927</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>5.434782608695652E-3</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="L7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="4">
         <v>0.61705029257723321</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.98134684024729202</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.94961483029255644</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.86595912282959098</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.76916151123937482</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.48418526016474289</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.56294823793193938</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.99367586600548763</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.6672597648661166</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>0.70186958501951979</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.30499077021381105</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>0.58136512036573273</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.98764031886662562</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.91308493272440616</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.93127447522380258</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.68407301113999608</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.85837013407782559</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.82836300691103981</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.99360607774828957</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.48184002385086194</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="5">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="4">
         <v>0.67921712012044311</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.98353380065827856</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.89111608817415255</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.89530032909082313</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.69484642792602114</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>0.76782428187876306</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.99265546183546238</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>2.3063581721293842E-3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.37342635720807726</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>0.2176679944375044</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>0.23172131744806035</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>0.80403895572337603</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.98567848283420478</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.93304580381212521</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.77732848179250824</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.29504663964512717</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.78804582619653085</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.62072909106757701</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.99192488153373382</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.41543624161073828</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>0.44843049327354262</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>0.30967741935483872</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="L11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.988380943090994</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.89815468846468582</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.85631245134618383</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.44136771930784119</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.59950965993023808</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.53725270939341419</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.99362842414461616</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <v>0.34960456490815112</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="4">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.98948618819027157</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.93598303598174959</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.88069669136133588</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.54359071148888838</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>0.8176152914418513</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.99068209660929918</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="I13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.98719630491430244</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.91279689674106002</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.88213639010791278</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.73136400206458541</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.32673067266500777</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.4849738168003585</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.99289938232634201</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.6897434699847762</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.56608335265832488</v>
       </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.9863952684193984</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.93670586198712957</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.85371585514745296</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>0.48508629527595737</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.53471491367638035</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.8291025138681184</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0.9904099697728258</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0.18190344555237437</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.99303241438651202</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.95142154892613562</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.81728134922558893</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.79945109082935406</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.75293649594122458</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.99308725982000245</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.85312706199859711</v>
       </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.98785425927626358</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.94624304840342843</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.89681804463544812</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.47265493849680018</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
         <v>0.78409469974950508</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>0.99043873857741282</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.53154446950692502</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.98796011243901605</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.91412494147052259</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.8384306640900534</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.40532502214297877</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.6663398124705846</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.60317535605277184</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.9933138654565854</v>
       </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.98949351363369398</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.92507670245528761</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.83998735519659684</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>0.70776790642658904</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>2.0790020790020791E-3</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>0.76167152533117755</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>0.99057849730545755</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>0.22702071782900496</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="J19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>0.99377777390495159</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.91096055768969519</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.92074158211482282</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.65824661091550762</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.18574514038876891</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.6958387710409849</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>0.991864055129552</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>5.7471264367816091E-3</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="J20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="4">
         <v>0.66577554998607624</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="L20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.98911699084023763</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.94070407987185123</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0.86746655405613815</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.57758575079756613</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.51245880798840637</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.54457003739193499</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>0.99417905031625964</v>
       </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
         <v>0.29866659712095706</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>0.15602541630148994</v>
       </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
         <v>0.67364490149280565</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.99376584293058756</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.92926129264227675</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.90843686284777281</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.47805307801659136</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.65604239690534194</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.74926522309683785</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>0.99326735662108179</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>0.99149339039728002</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.96848257132991356</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.91902162340222959</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.66003066973600444</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
         <v>0.86278286425488571</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>0.99219102844663121</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>0.90957607546985342</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="J23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>0.99359852547713878</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.83459958065360107</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>0.92157800556194458</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>0.26675945188230704</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
         <v>0.83259461946874147</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>0.99367509368915485</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>0.60898607817401429</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="J24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>0.99261240915066618</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.91934112185883965</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0.92385452549434965</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0.28092923772021405</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
         <v>0.84271234232169023</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>0.99285521369502305</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="I25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.99140872414708858</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.94035907245244521</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0.93876959220592004</v>
       </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="4">
         <v>0.84044419018994299</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>0.99193612991651059</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>0.69150741196396681</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
+      <c r="J26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>0.99557684374269484</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>0.95873950568508082</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.94716256742806515</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>0.32204637297844868</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>0.97647050781107625</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>0.84975689401093912</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>0.99170211450843004</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>0.8458042327383043</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="J27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="4">
         <v>0.69213560624967674</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="L27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>0.98992068297487157</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>0.9288625064592374</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>0.88703716351979389</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>0.28083599953081373</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0.85679095098449931</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>0.84777024926243327</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>0.99259456015952519</v>
       </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>0.99163032558147202</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>0.95254860905143601</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>0.84256291892338098</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>0.40929523336112494</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>0.63375911781058414</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>0.6843352634319676</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>0.99153517794486523</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="I29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>0.98906423714234837</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>0.94366363975120959</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>0.88421514317416006</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>0.58327532676162941</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>0.59674734657923001</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>0.73281524134128728</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>0.99345237765729122</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>0.24855794441531201</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>0.36600439252093336</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>0.29118923911162442</v>
       </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
         <v>0.53501997893760678</v>
       </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0.97982060061082998</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0.92228610489373797</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0.89105694938877533</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>0.8193332249106946</v>
       </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
         <v>0.85061262107996105</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>0.9868344001493814</v>
       </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0.98641233658701843</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0.89620019211820456</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>0.86514951231178883</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>0.45565776221582849</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>6.19937322162354E-2</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>0.57957097821936465</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>0.98908193653240639</v>
       </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>0.57585750842130745</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="K32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>0.98204862033509077</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>0.86907147608762625</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>0.84870925721642143</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>0.39537217892867887</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>6.5507994045303178E-2</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>0.70414599259727229</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>0.98805481522718763</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>0.14194230589903736</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
+      <c r="J33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>0.9902746108134004</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>0.93682287851383395</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>0.91103946153916915</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>0.2274730775307128</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>0.46760701971984009</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>0.83331216055803248</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>0.99292019690012556</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>0.88957294594441572</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
+      <c r="J34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>0.99394469452585799</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>0.93010214311059458</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>0.90728172631796056</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>0.51568176715564007</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>0.67815262205514704</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>0.83825207353620534</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>0.99144169421371797</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>0.8630077158247198</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>0.81536535520184572</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>0.60262332477901337</v>
       </c>
-      <c r="L35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="L35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>0.97777607283154677</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>0.94309461631832681</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>0.85278960906313139</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>0.10595090621744724</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>0.34947970374124038</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>0.70379790879352577</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>0.98851191120937321</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>0.54602578499413978</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
+      <c r="J36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>0.96990930134963438</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>0.92033669391217199</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>0.86200455071418058</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>0.24529975606628193</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>0.33814063794189259</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>0.64619721742541814</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>0.99007918976364384</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>1.121341789562161E-2</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
+      <c r="J37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>0.99159071397978482</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>0.95277068310243318</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>0.88261930016679535</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>0.64646312400184136</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>0.34804481137292315</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>0.68440867807936023</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>0.99273830254274842</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <v>0.23725427350427353</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
+      <c r="J38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>0.98308839306051121</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>0.89852863027247964</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>0.87845987925493418</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>0.63535897085254511</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>0.27433910185158472</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>0.63902215456220157</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>0.98856346588769917</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <v>0.14662683594722428</v>
       </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>0.98740934941477321</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>0.95022491285318955</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>0.88608484164994217</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>0.37251185925210761</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>0.87953216374269005</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>0.78038638600043742</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>0.99280684119156504</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="4">
         <v>0.46804362395661975</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
+      <c r="J40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>0.98281734137634957</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>0.93361169291292556</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>0.89753136599862415</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>0.63127193205569787</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>0.15127954706200575</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>0.76224425349674774</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>0.98748684494057959</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <v>0.4684702549575071</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
+      <c r="J41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>0.98713717549180735</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>0.94088922894414684</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>0.92867615643662482</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>0.6015314866464917</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="F42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="4">
         <v>0.87334289818702793</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>0.99511846089359557</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>0.96212040678927035</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
+      <c r="J42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>0.99082362969752935</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>0.93677186574070204</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>0.84954569660465906</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>0.23121356721314021</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>0.76054436591192487</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>0.70499821602025592</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>0.99327028834009101</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>0.64921590306269461</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
+      <c r="J43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>0.98434294232560482</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>0.90060051483896619</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>0.88158390193763903</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>0.45001674890711263</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="4">
         <v>0.77055783388762367</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>0.99213792247758636</v>
       </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>0.98753797993181203</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>0.94236594581878041</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>0.88994630556870868</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>0.27562926146065991</v>
       </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
         <v>0.60800096713135843</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>0.98870690911033321</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>0.16197050281015429</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
+      <c r="J45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>0.9893958800532392</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>0.92192041787278278</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>0.89479240241607483</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>0.22467913803484352</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>0.63387086448438967</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>0.68996036789911108</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>0.99094496936107357</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="4">
         <v>0.5012502147774065</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>0.61243159616732068</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
+      <c r="K46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>0.97304357183949164</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>0.91211148546384124</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>0.88712202735339418</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>0.58841464811046162</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>0.2450632145264556</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>0.76677586378349516</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>0.991100291043707</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="4">
         <v>0.4032260988256835</v>
       </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>0.98263384403720544</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>0.89695278086554098</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>0.92221459287048402</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>0.8218529149272682</v>
       </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
         <v>0.87471233185876018</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <v>0.9921863039929032</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <v>0.86124592923364274</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
+      <c r="J48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>0.99266988125276856</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>0.93174843390107598</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>0.92264912537572275</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>0.64348992251219594</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>0.44594843109165527</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>0.83362647874998808</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>0.99436637536304162</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>0.24880477284647473</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>0.52736318407960203</v>
       </c>
-      <c r="K49" s="5">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" s="5">
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="4">
         <v>0.90140789136043842</v>
       </c>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>0.98694496599477521</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>0.96226130616836203</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>0.89692856715680724</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>0.61503636650013949</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>0.70579033018431148</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>0.76964256531807018</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <v>0.99400778786734101</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="4">
         <v>0.26749860612553017</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M50" s="5">
+      <c r="J50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M50" s="4">
         <v>0.56698444555945815</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>0.98924555895039235</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>0.91255430644179325</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>0.89255547117486245</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>0.23172029732880617</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>0.40240729884318927</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>0.69002063717224904</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <v>0.99291038361144879</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="4">
         <v>0.57498110719240214</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
+      <c r="J51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>0.99222504467807082</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>0.93915522721885403</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>0.93266929478134619</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>0.31716504134325529</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>0.64028784596858335</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <v>0.85974993043289527</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>0.99341623914021238</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="4">
         <v>0.73283338672453502</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K52" s="5">
+      <c r="J52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K52" s="4">
         <v>0.94523883812864462</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
+      <c r="L52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>0.99324217639594836</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>0.9508962320393004</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>0.90062719756130694</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>0.63053706332636683</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <v>0.2075626798191533</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>0.77489680847890663</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <v>0.99282293183375403</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <v>0.96270954498802597</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
+      <c r="J53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>0.98977664449664915</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>0.95717642756053956</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>0.92998782792206924</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>0.68881960613854964</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>0.58613165154593228</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>0.81277206098472221</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>0.99420042563774857</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="4">
         <v>0.1744981151924257</v>
       </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
         <v>0.76045412109843247</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>0.97970354216181621</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>0.94909728998046483</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>0.91882992856390777</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>0.70427391083393331</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>0.56631456708565908</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>0.75645176279158788</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>0.99397234280644398</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="4">
         <v>0.90660311297140717</v>
       </c>
-      <c r="J55" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5">
+      <c r="J55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
         <v>0.82678701572116964</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>0.98766343583750982</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>0.89931840549204289</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>0.8916660622694107</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>0.27770197581575667</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>0.41477716966379985</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>0.80457122511250423</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>0.99217463046320897</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="4">
         <v>0.67718348040597143</v>
       </c>
-      <c r="J56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
+      <c r="J56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>0.98926675056119961</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>0.94360701192148844</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>0.89454332390023983</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>4.9955082135523611E-2</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>0.70912877294632559</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>0.8065074768501076</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>0.99356264515889703</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="4">
         <v>0.92810112253560983</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
+      <c r="J57" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">
@@ -6864,759 +7031,759 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C3AAB7-6BB0-434D-BAB3-62E9823F4C12}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.96292053523055243</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.93331277569684479</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.89959471356267318</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.5388511892670691</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.54797384825481454</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.80976501912385102</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.99112439100416438</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.31619320761395409</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="J2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.98067699308490364</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.94792250651934595</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.91887226004225198</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.53343258380974679</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.71783503132891902</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.99137137446294321</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.9098432340003394</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="J3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.98708097647358684</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.93382314544691958</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.86833446980819262</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.37716641919515753</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.22721720009772783</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.78674029144953961</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.99077443640242202</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.47305569925849278</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="J4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.96187006671992759</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.95291355014716239</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.89189053846008093</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.62983655852970255</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.82573258751181977</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.78353681501126926</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.99155406460186801</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>0.62553846841777494</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.93982209261079463</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.94302951819366343</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.88476335888171087</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.72975991066443324</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.90750670241286879</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.70672557991909257</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.98974397625089516</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>4.4630803845367148E-2</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="J6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.98986108471587919</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.94494340323720638</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.88261712533910697</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.68601494509282801</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.25131784718009237</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.79539814917546281</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.99030017608251664</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.91492628761979922</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="J7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.97746983772376883</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.93610748609085859</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.7997678464118716</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.26122329054936033</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.71780680382944029</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.99155751846578644</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.97923599381887083</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.93733579900384401</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.88745059168563245</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.14531762235833656</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>0.78325890394488151</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.98417029439403758</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.99179464989690758</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.94824844246808582</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.9243139435675336</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.49429188363037452</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.21140350877192984</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.85237139447825727</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.99259318526876161</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.94119761525856438</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="J10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.97748433982093297</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.90341780553498696</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.85056920277671966</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5.1331408405518126E-3</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>0.65537669681809896</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.96945550577071959</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.98633322555756964</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.93498365319701682</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.86415042398140607</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.42515041998558989</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.36455938192558635</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.57148708474169985</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.9921378918470386</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.90863228699551557</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="J12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.98412000971889879</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.91199018961542022</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.86360795039273686</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.54511219817792778</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.18963855421686748</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.86790268036018625</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.99158436091370483</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.82794352083807787</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="J13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.93738962604653919</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.82534722648976699</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.80830370722301681</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.3002480725533046</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
         <v>0.51427532195559444</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.97059435408287797</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.52827462233421818</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.9784686045759784</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.94270502077376905</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.87524838284591089</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>0.14162064883269257</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>9.594880615266152E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.7406335493089734</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0.98185363970367079</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0.39521141016281369</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7644,7 +7811,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7698,576 +7865,576 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.97286876604327965</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.92954643637901235</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.90480212736184695</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0.5277358132124832</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0.32473520249221183</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0.8144339829508902</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0.99054034605545682</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>0.52943126144880415</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.98364488027601815</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.94773602528886602</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.92780873095922156</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0.55645257679372806</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <v>0.72975254881637497</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0.99162991041986637</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.93414487871479801</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.98870165784497044</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.93257928811957902</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.89922857332446937</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.50969768876984489</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.15216682958618441</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>0.81272947994000011</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.99136756636332479</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0.47605438642071535</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="J4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.9694173637858704</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.94669048350528562</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.89656301999053778</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.67633173591813067</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.85659443036676919</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.79073407886014435</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0.99235916197530682</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>6.4159292035398233E-2</v>
       </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
         <v>0.73704203370216592</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.92249187045782322</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.93634324799184643</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.88943243394999061</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.75092314509379154</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.90915141430948421</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.69947271755381313</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.99010105103727497</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>0.16876740947075208</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="J6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.99015999348659545</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.95119305010041122</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.88122893337365538</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.71118108973851213</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.36338565465795941</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.80454531431501053</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.99104757436404323</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>0.92551246200946258</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.97917345308956905</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.93130600678540121</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.87072564191639579</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.41972434646576878</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <v>0.75935603318594058</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0.99181554279449002</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.98066609590605403</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.94260502483076902</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.92314431863438295</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.14881227340808242</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>0.78167691910964321</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.98483485711259677</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="I9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.99141943129796284</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.95051913977194635</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.92384623597200355</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.58942481840322092</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.18361321957438465</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.84467701074214152</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0.99163003648753401</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.90975863519138678</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="J10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.97743172413290635</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.91150557994616521</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.89090600238760698</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>7.9947575360419399E-3</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.12797809219534459</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.68194810355722646</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.97611418021304963</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="I11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.98672939653879599</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.93775600070511123</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.88371795194389791</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.5141300962246812</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0.38671929848652087</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>0.58541882776010901</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>0.99255290929484397</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>0.90276750036998676</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="J12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0.98468006232587479</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>0.91826446539459283</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0.86524265370663223</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.65267891159215641</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>0.21300649205283187</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>0.86668472382730533</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>0.99110494576239161</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>0.85066449055723947</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="J13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.94014050132155724</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.84813097251572145</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.82734250605678039</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>0.31173406567461653</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>0.54114695665244272</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.97362639472094481</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>0.54753142759679041</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>0.97849688329044482</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0.94126440728584704</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>0.87068198525339668</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0.13614992606111195</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>9.8472363342558239E-2</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>0.74534582429907648</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>0.98125069336558357</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.40326503547763465</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="J15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>92</v>
       </c>
     </row>

--- a/metrics_build/metrics_models.xlsx
+++ b/metrics_build/metrics_models.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E0F43-28D9-4F04-82DC-88D5EED2C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E6AA44-A314-40A9-8522-47AF01612DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview train" sheetId="2" r:id="rId1"/>
     <sheet name="Overview test" sheetId="4" r:id="rId2"/>
-    <sheet name="Model 1 2D train" sheetId="1" r:id="rId3"/>
-    <sheet name="Model 1 2D test" sheetId="3" r:id="rId4"/>
-    <sheet name="Model 2 2D train" sheetId="8" r:id="rId5"/>
-    <sheet name="Model 2 2D test" sheetId="6" r:id="rId6"/>
-    <sheet name="Model 3 2D train" sheetId="10" r:id="rId7"/>
-    <sheet name="Model 3 2D test" sheetId="11" r:id="rId8"/>
+    <sheet name="Lipid arc DICEs" sheetId="12" r:id="rId3"/>
+    <sheet name="Model 1 2D train" sheetId="1" r:id="rId4"/>
+    <sheet name="Model 1 2D test" sheetId="3" r:id="rId5"/>
+    <sheet name="Model 2 2D train" sheetId="8" r:id="rId6"/>
+    <sheet name="Model 2 2D test" sheetId="6" r:id="rId7"/>
+    <sheet name="Model 3 2D train" sheetId="10" r:id="rId8"/>
+    <sheet name="Model 3 2D test" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Model 1 2D test'!$A$23:$M$37</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'Model 2 2D test'!$A$23:$M$37</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'Model 3 2D train'!$A$4:$M$122</definedName>
-    <definedName name="ExternalData_2" localSheetId="4" hidden="1">'Model 2 2D train'!$A$4:$M$92</definedName>
-    <definedName name="ExternalData_2" localSheetId="7" hidden="1">'Model 3 2D test'!$A$4:$M$18</definedName>
-    <definedName name="ExternalData_4" localSheetId="7" hidden="1">'Model 3 2D test'!$A$23:$M$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Model 1 2D test'!$A$23:$M$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'Model 2 2D test'!$A$23:$M$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">'Model 3 2D train'!$A$4:$M$122</definedName>
+    <definedName name="ExternalData_2" localSheetId="5" hidden="1">'Model 2 2D train'!$A$4:$M$92</definedName>
+    <definedName name="ExternalData_2" localSheetId="8" hidden="1">'Model 3 2D test'!$A$4:$M$18</definedName>
+    <definedName name="ExternalData_4" localSheetId="8" hidden="1">'Model 3 2D test'!$A$23:$M$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="229">
   <si>
     <t>lumen</t>
   </si>
@@ -633,6 +634,153 @@
   <si>
     <t>NLDISALA0097_1</t>
   </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Pullback</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Mean DICE</t>
+  </si>
 </sst>
 </file>
 
@@ -798,7 +946,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="69">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3337,6 +3488,306 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Lipid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> arc DICEs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lipid arc DICEs'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Model 1 2D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2 2D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3 2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lipid arc DICEs'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.66629741644766727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75958190480402832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76751693790125319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63CC-480F-800D-7977516FB381}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1067435328"/>
+        <c:axId val="542714096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1067435328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542714096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542714096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067435328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3418,6 +3869,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4966,6 +5457,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5078,6 +6072,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE022B3-20A9-CE2B-E847-D55FA77493E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5231,7 +6266,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6D864E62-098E-4195-A0B5-CD4E5F137209}" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0">
   <autoFilter ref="A1:S4" xr:uid="{6D864E62-098E-4195-A0B5-CD4E5F137209}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{CB851FAA-C8DF-489C-B74F-A785522F1BAA}" name="Date " dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{CB851FAA-C8DF-489C-B74F-A785522F1BAA}" name="Date " dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{85F88159-E34A-4985-89CD-9634CE0918BE}" name="Nº patients"/>
     <tableColumn id="3" xr3:uid="{6ADEAA0E-4A60-4D02-B376-309CF4107C90}" name="Nº pullback"/>
     <tableColumn id="4" xr3:uid="{5FBB4B28-FE4D-4C7D-856F-93AFC1DE489B}" name="Nº frames"/>
@@ -5256,10 +6291,57 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E7E12A1-8F34-4AF3-8B13-96196DCD9A26}" name="new_dices7" displayName="new_dices7" ref="A23:M37" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A23:M37" xr:uid="{6E7E12A1-8F34-4AF3-8B13-96196DCD9A26}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{21E06DAB-8E73-4373-9140-F113D879C55E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{FD1A8E7D-0B27-4753-A527-103B34749DBD}" uniqueName="3" name="lumen" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{404989E0-DEDD-4007-8A8B-C02AF5E2BE8C}" uniqueName="4" name="guidewire" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{B49E131F-4FD9-4FF3-90CE-4A5CAF514376}" uniqueName="5" name="wall" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{5BC06630-3A6C-476C-AD70-11CD1D94FC31}" uniqueName="6" name="lipid" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{29F1772D-DCD0-4A2B-8A1C-7DAFA27E8513}" uniqueName="7" name="calcium" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{69679B2A-4BC1-4211-B7FC-0E24FC862064}" uniqueName="8" name="media" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{6704B352-AB58-4130-934F-D4B6A558F240}" uniqueName="9" name="catheter " queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{E440953D-EEC9-45A4-9281-2C3EF716E3BA}" uniqueName="10" name="sidebranch" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{3B25035F-F022-45C9-BE98-BD32EE53874D}" uniqueName="11" name="rthrombus" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{4972630A-0DA5-4505-B64C-B4695DF8642E}" uniqueName="12" name="wthrombus" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{7981B865-7508-4A52-9737-EC398B6DD796}" uniqueName="13" name="dissection" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{7DEE64E9-6315-47DD-B806-CCE8B2313EAA}" uniqueName="14" name="rupture" queryTableFieldId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A829E09A-FDC0-46DF-8C77-A32E71E5EE82}" name="pullback_model_3_train" displayName="pullback_model_3_train" ref="A4:M122" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A4:M122" xr:uid="{A829E09A-FDC0-46DF-8C77-A32E71E5EE82}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M122">
+    <sortCondition ref="A4:A122"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{2C466B9F-3486-43EA-88F0-6B04382A3B98}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A1CF0318-84A9-4B5A-B15E-4D0CD9BBF4D8}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
+    <tableColumn id="6" xr3:uid="{B94F830C-04B5-4445-8263-9CF8B5334E60}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{8A853AF1-1B5E-44EC-93C7-36302562DA73}" uniqueName="7" name="wall" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{8B739106-6678-407A-8F2A-0A91558DEFFB}" uniqueName="8" name="lipid" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{C521110F-FBA3-41AD-A6BC-46948396342D}" uniqueName="9" name="calcium" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{8229D028-819C-4B13-9143-3743A7B0AEA6}" uniqueName="10" name="media" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{2D43C810-31EE-4E69-842C-2955B2849AC0}" uniqueName="11" name="catheter " queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{5CD2BD0E-B403-4277-8D23-74047690E9CC}" uniqueName="12" name="sidebranch" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{75DD1D07-E7C2-4946-955C-BB3954855998}" uniqueName="13" name="rthrombus" queryTableFieldId="13"/>
+    <tableColumn id="3" xr3:uid="{E36DF14E-EF22-412C-84D5-E96AD9FF1305}" uniqueName="3" name="wthrombus" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{AF3B689D-663B-4B08-A858-98F0765E4234}" uniqueName="4" name="dissection" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{0FB1CCB4-26BD-4057-AD27-D3B19140E4F9}" uniqueName="5" name="rupture" queryTableFieldId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6EFEC896-A044-47E0-8A2C-2ADC0FD0C57A}" name="pullback_model_3_test" displayName="pullback_model_3_test" ref="A4:M18" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A4:M18" xr:uid="{6EFEC896-A044-47E0-8A2C-2ADC0FD0C57A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{EFF36B65-A573-4987-BD0F-B326BFCE2E1E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EFF36B65-A573-4987-BD0F-B326BFCE2E1E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1C58043E-829D-41FD-ADBD-840915C3F3DB}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
     <tableColumn id="6" xr3:uid="{7ABDCBE9-D904-45B3-9CAF-6DD2ED60C609}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{2B276962-CBA7-4EDF-9C61-0AC6A30D0944}" uniqueName="7" name="wall" queryTableFieldId="7"/>
@@ -5277,11 +6359,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{506D7047-A09F-4A76-AD3F-E3BA4190A045}" name="new_dices_model3_test__214" displayName="new_dices_model3_test__214" ref="A23:M37" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A23:M37" xr:uid="{506D7047-A09F-4A76-AD3F-E3BA4190A045}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1C088C25-3292-48C4-9DDB-BCD8282FC071}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1C088C25-3292-48C4-9DDB-BCD8282FC071}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{6CFFF739-226F-4791-A8B7-98C68EF75320}" uniqueName="3" name="lumen" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{0126F16A-CAB2-4DB8-92D9-7042B4ABF772}" uniqueName="4" name="guidewire" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{E5AD6AF6-0F74-49B2-BF2C-2C1A69E9FC33}" uniqueName="5" name="wall" queryTableFieldId="5"/>
@@ -5300,7 +6382,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}" name="Table4" displayName="Table4" ref="A1:O7" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}" name="Table4" displayName="Table4" ref="A1:O7" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="A1:O7" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{90A29A87-F39F-4144-92E9-53073D9307DE}" name="Name"/>
@@ -5324,79 +6406,110 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}" name="Table1" displayName="Table1" ref="A4:M60" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{168BC316-B47F-437F-8E4C-CF6213B47D0D}" name="Table12" displayName="Table12" ref="B12:F174" totalsRowShown="0">
+  <autoFilter ref="B12:F174" xr:uid="{168BC316-B47F-437F-8E4C-CF6213B47D0D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:F174">
+    <sortCondition ref="B13:B174"/>
+    <sortCondition ref="C13:C174"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5B9BE478-1F4A-4EB1-8A1E-3B3B38BE0D23}" name="Pullback"/>
+    <tableColumn id="2" xr3:uid="{E71D8070-55AC-44A6-87E1-C7A6B29D6E16}" name="Frame"/>
+    <tableColumn id="3" xr3:uid="{82B69281-609F-4510-BE3A-F60F54D0F5AA}" name="Model 1 2D"/>
+    <tableColumn id="4" xr3:uid="{487FFC4C-61D9-4AC7-93E1-3162EC3B45E6}" name="Model 2 2D"/>
+    <tableColumn id="5" xr3:uid="{7C761E9B-B7E8-4A92-BAE5-9970F33EEA64}" name="Model 3 2D"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{08A1FE8D-303F-4825-902E-F8F49FD47607}" name="Table14" displayName="Table14" ref="B3:C6" totalsRowShown="0">
+  <autoFilter ref="B3:C6" xr:uid="{08A1FE8D-303F-4825-902E-F8F49FD47607}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0A9360EA-C5E5-4966-BB47-6EDB93EE8BE5}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F7AEA2C2-92AD-476D-A404-F330557EBF90}" name="Mean DICE" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table12[Model 3 2D])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}" name="Table1" displayName="Table1" ref="A4:M60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A4:M60" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E9A2664F-949A-461C-8632-250D14F2C760}" name="pullback" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{81AEE817-74D0-4CC5-A299-1597C836BDBE}" name="lumen" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{CC602F98-37A3-4361-A848-D4CBB9948033}" name="guidewire" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{CA810748-2336-49F3-A8D0-2B7B9306BAF9}" name="wall" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{8DFD2D26-06D4-47D5-9BAC-FB0E075CF24D}" name="lipid" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{98114F9F-8129-46BC-B902-B4802F5C3F62}" name="calcium" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{A5277F3D-4D0C-4DCD-9B04-F78B100B7B46}" name="media" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{B278FC61-31A9-46DA-8014-B1A03111CBE1}" name="catheter" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{34BCDEB6-E89F-4CEA-A102-13F76A35F32B}" name="sidebranch" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{3E093B54-A5C8-4AA5-AC76-8E77A7F90417}" name="rthrombus" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{06AD8942-98FD-4AD4-978C-773935D494DD}" name="wthrombus" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{89DFF757-FFCD-4EF8-B173-ECCA43FEFCDA}" name="dissection" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{937B4B65-7E4A-40CE-915C-BC92DE18744F}" name="rupture" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{E9A2664F-949A-461C-8632-250D14F2C760}" name="pullback" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{81AEE817-74D0-4CC5-A299-1597C836BDBE}" name="lumen" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{CC602F98-37A3-4361-A848-D4CBB9948033}" name="guidewire" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{CA810748-2336-49F3-A8D0-2B7B9306BAF9}" name="wall" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{8DFD2D26-06D4-47D5-9BAC-FB0E075CF24D}" name="lipid" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{98114F9F-8129-46BC-B902-B4802F5C3F62}" name="calcium" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{A5277F3D-4D0C-4DCD-9B04-F78B100B7B46}" name="media" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{B278FC61-31A9-46DA-8014-B1A03111CBE1}" name="catheter" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{34BCDEB6-E89F-4CEA-A102-13F76A35F32B}" name="sidebranch" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{3E093B54-A5C8-4AA5-AC76-8E77A7F90417}" name="rthrombus" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{06AD8942-98FD-4AD4-978C-773935D494DD}" name="wthrombus" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{89DFF757-FFCD-4EF8-B173-ECCA43FEFCDA}" name="dissection" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{937B4B65-7E4A-40CE-915C-BC92DE18744F}" name="rupture" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}" name="Table2" displayName="Table2" ref="A4:M18" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}" name="Table2" displayName="Table2" ref="A4:M18" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A4:M18" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{316127D1-C863-4B75-9F74-072A0EE7405D}" name="pullback" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{9917C3EA-1C30-4BB0-91BC-48A2C3F8AFF5}" name="lumen" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{F37756C4-C13F-4ABC-8F21-0A72F1FA98D2}" name="guidewire" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{9A440BE1-2FCC-4C1C-916B-D894C470B6B7}" name="wall" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{90A106DF-CBBB-4E1B-9026-756AB13879A6}" name="lipid" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{70B62D4F-EAAA-46FD-994B-F4364B457A1D}" name="calcium" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{6CE2743C-C32C-4504-8C4F-E40C2027E306}" name="media" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{D3DEF3C0-1F65-406B-9D99-0DE216BEE211}" name="catheter" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{C7283D77-8600-4E6C-B317-9A59BCE8D515}" name="sidebranch" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{91A8B186-D5BD-4AE0-8C58-C229065A6C5C}" name="rthrombus" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{76A5940A-8A23-49C0-AF19-32FC5B8C6026}" name="wthrombus" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{024AC4E6-3A31-4405-9CFF-1C14722ED33B}" name="dissection" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{52163E12-701F-493C-A10C-56018D37AB50}" name="rupture" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{316127D1-C863-4B75-9F74-072A0EE7405D}" name="pullback" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{9917C3EA-1C30-4BB0-91BC-48A2C3F8AFF5}" name="lumen" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{F37756C4-C13F-4ABC-8F21-0A72F1FA98D2}" name="guidewire" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{9A440BE1-2FCC-4C1C-916B-D894C470B6B7}" name="wall" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{90A106DF-CBBB-4E1B-9026-756AB13879A6}" name="lipid" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{70B62D4F-EAAA-46FD-994B-F4364B457A1D}" name="calcium" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{6CE2743C-C32C-4504-8C4F-E40C2027E306}" name="media" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{D3DEF3C0-1F65-406B-9D99-0DE216BEE211}" name="catheter" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{C7283D77-8600-4E6C-B317-9A59BCE8D515}" name="sidebranch" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{91A8B186-D5BD-4AE0-8C58-C229065A6C5C}" name="rthrombus" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{76A5940A-8A23-49C0-AF19-32FC5B8C6026}" name="wthrombus" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{024AC4E6-3A31-4405-9CFF-1C14722ED33B}" name="dissection" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{52163E12-701F-493C-A10C-56018D37AB50}" name="rupture" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB65BE29-0BD2-4730-BC3C-3E15BC3235E7}" name="new_dices_model1_test__212" displayName="new_dices_model1_test__212" ref="A23:M37" tableType="queryTable" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB65BE29-0BD2-4730-BC3C-3E15BC3235E7}" name="new_dices_model1_test__212" displayName="new_dices_model1_test__212" ref="A23:M37" tableType="queryTable" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A23:M37" xr:uid="{AB65BE29-0BD2-4730-BC3C-3E15BC3235E7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D429D6CF-3715-4453-807D-F5172C56F9A5}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{E86BAE9D-B1C0-44A5-BA9A-65D342E617D4}" uniqueName="3" name="lumen" queryTableFieldId="3" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{BF3BAF55-6A20-4993-9E26-9863C60DC3FD}" uniqueName="4" name="guidewire" queryTableFieldId="4" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{DA9515EB-CF4F-40F4-83EC-3705A726AD32}" uniqueName="5" name="wall" queryTableFieldId="5" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{7BDF596F-0326-4765-86BE-FE46830462D7}" uniqueName="6" name="lipid" queryTableFieldId="6" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{A2A7F245-F961-4307-B32D-D2E3FD1E7D70}" uniqueName="7" name="calcium" queryTableFieldId="7" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{A674A59B-866E-43C8-A11C-BD3E7D1982F9}" uniqueName="8" name="media" queryTableFieldId="8" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{B6B9F9F4-D4D0-494B-946D-B7678EE2F883}" uniqueName="9" name="catheter" queryTableFieldId="9" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{2D500235-EC3A-4D0D-9549-3FC853DAC82D}" uniqueName="10" name="sidebranch" queryTableFieldId="10" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{9306ACAB-8372-4DAA-BF83-29A99AF32C65}" uniqueName="11" name="rthrombus" queryTableFieldId="11" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{91ADE48B-D8E3-4347-879A-C7753F204378}" uniqueName="12" name="wthrombus" queryTableFieldId="12" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{6D71478F-08A1-4481-B9A3-57DC7C253CD1}" uniqueName="13" name="dissection" queryTableFieldId="13" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{F4F574A0-082B-4DEE-934A-FC695C51B712}" uniqueName="14" name="rupture" queryTableFieldId="14" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D429D6CF-3715-4453-807D-F5172C56F9A5}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{E86BAE9D-B1C0-44A5-BA9A-65D342E617D4}" uniqueName="3" name="lumen" queryTableFieldId="3" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{BF3BAF55-6A20-4993-9E26-9863C60DC3FD}" uniqueName="4" name="guidewire" queryTableFieldId="4" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{DA9515EB-CF4F-40F4-83EC-3705A726AD32}" uniqueName="5" name="wall" queryTableFieldId="5" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{7BDF596F-0326-4765-86BE-FE46830462D7}" uniqueName="6" name="lipid" queryTableFieldId="6" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{A2A7F245-F961-4307-B32D-D2E3FD1E7D70}" uniqueName="7" name="calcium" queryTableFieldId="7" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{A674A59B-866E-43C8-A11C-BD3E7D1982F9}" uniqueName="8" name="media" queryTableFieldId="8" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{B6B9F9F4-D4D0-494B-946D-B7678EE2F883}" uniqueName="9" name="catheter" queryTableFieldId="9" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{2D500235-EC3A-4D0D-9549-3FC853DAC82D}" uniqueName="10" name="sidebranch" queryTableFieldId="10" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{9306ACAB-8372-4DAA-BF83-29A99AF32C65}" uniqueName="11" name="rthrombus" queryTableFieldId="11" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{91ADE48B-D8E3-4347-879A-C7753F204378}" uniqueName="12" name="wthrombus" queryTableFieldId="12" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{6D71478F-08A1-4481-B9A3-57DC7C253CD1}" uniqueName="13" name="dissection" queryTableFieldId="13" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{F4F574A0-082B-4DEE-934A-FC695C51B712}" uniqueName="14" name="rupture" queryTableFieldId="14" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{059FCDAB-5625-4273-9F79-C99522278EEB}" name="pullback_model_2_train" displayName="pullback_model_2_train" ref="A4:M92" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{059FCDAB-5625-4273-9F79-C99522278EEB}" name="pullback_model_2_train" displayName="pullback_model_2_train" ref="A4:M92" tableType="queryTable" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A4:M92" xr:uid="{059FCDAB-5625-4273-9F79-C99522278EEB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M92">
     <sortCondition ref="A5:A92"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{80EDAEC6-61BE-4F8A-96B8-D66B574F3F34}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{80EDAEC6-61BE-4F8A-96B8-D66B574F3F34}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{2A1EBF68-1BF0-40EF-9116-FBA244B1C9A5}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
     <tableColumn id="6" xr3:uid="{9C2B8825-E482-4EB8-A8FE-E34846016B7E}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{0632FDC1-DE75-44F7-A6FF-79FB7EFE7103}" uniqueName="7" name="wall" queryTableFieldId="7"/>
@@ -5414,70 +6527,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}" name="Table5" displayName="Table5" ref="A4:M18" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}" name="Table5" displayName="Table5" ref="A4:M18" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A4:M18" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C128ADB3-417E-4B33-B9AC-183C00C3BBF2}" name="pullback" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{3D6EDBE2-1704-4CB9-8FA4-ED2A34B17FC7}" name="lumen" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{85D9E7B3-F999-4314-85EC-BBCB52496EF3}" name="guidewire" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{2539DB42-1562-4280-B0F3-A727C96420FD}" name="wall" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{A900E6A3-1793-48C5-8F67-E4C600780439}" name="lipid" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{734B0EEB-8837-40BE-813C-A788E002083C}" name="calcium" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{94B0780D-AAE2-4C61-8BBA-F9E614D0F10D}" name="media" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{7697724D-B627-4CF4-874C-27D754107670}" name="catheter " dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{B66D6827-A46E-4E14-BCE4-9ABB230D315F}" name="sidebranch" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{DE5BCFF8-5228-4E56-8FA5-C9059DDB0451}" name="rthrombus" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{398234A1-F3B6-483F-A686-53D001AEA431}" name="wthrombus" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{671E6709-7864-44EF-B8BA-EDA68F3BA772}" name="dissection" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B5138DD1-E1D8-40D0-8062-E69F345E2FC3}" name="rupture" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E7E12A1-8F34-4AF3-8B13-96196DCD9A26}" name="new_dices7" displayName="new_dices7" ref="A23:M37" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A23:M37" xr:uid="{6E7E12A1-8F34-4AF3-8B13-96196DCD9A26}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{21E06DAB-8E73-4373-9140-F113D879C55E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FD1A8E7D-0B27-4753-A527-103B34749DBD}" uniqueName="3" name="lumen" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{404989E0-DEDD-4007-8A8B-C02AF5E2BE8C}" uniqueName="4" name="guidewire" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{B49E131F-4FD9-4FF3-90CE-4A5CAF514376}" uniqueName="5" name="wall" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{5BC06630-3A6C-476C-AD70-11CD1D94FC31}" uniqueName="6" name="lipid" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{29F1772D-DCD0-4A2B-8A1C-7DAFA27E8513}" uniqueName="7" name="calcium" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{69679B2A-4BC1-4211-B7FC-0E24FC862064}" uniqueName="8" name="media" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{6704B352-AB58-4130-934F-D4B6A558F240}" uniqueName="9" name="catheter " queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E440953D-EEC9-45A4-9281-2C3EF716E3BA}" uniqueName="10" name="sidebranch" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{3B25035F-F022-45C9-BE98-BD32EE53874D}" uniqueName="11" name="rthrombus" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{4972630A-0DA5-4505-B64C-B4695DF8642E}" uniqueName="12" name="wthrombus" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{7981B865-7508-4A52-9737-EC398B6DD796}" uniqueName="13" name="dissection" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{7DEE64E9-6315-47DD-B806-CCE8B2313EAA}" uniqueName="14" name="rupture" queryTableFieldId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A829E09A-FDC0-46DF-8C77-A32E71E5EE82}" name="pullback_model_3_train" displayName="pullback_model_3_train" ref="A4:M122" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A4:M122" xr:uid="{A829E09A-FDC0-46DF-8C77-A32E71E5EE82}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M122">
-    <sortCondition ref="A4:A122"/>
-  </sortState>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2C466B9F-3486-43EA-88F0-6B04382A3B98}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A1CF0318-84A9-4B5A-B15E-4D0CD9BBF4D8}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
-    <tableColumn id="6" xr3:uid="{B94F830C-04B5-4445-8263-9CF8B5334E60}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{8A853AF1-1B5E-44EC-93C7-36302562DA73}" uniqueName="7" name="wall" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{8B739106-6678-407A-8F2A-0A91558DEFFB}" uniqueName="8" name="lipid" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{C521110F-FBA3-41AD-A6BC-46948396342D}" uniqueName="9" name="calcium" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{8229D028-819C-4B13-9143-3743A7B0AEA6}" uniqueName="10" name="media" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{2D43C810-31EE-4E69-842C-2955B2849AC0}" uniqueName="11" name="catheter " queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{5CD2BD0E-B403-4277-8D23-74047690E9CC}" uniqueName="12" name="sidebranch" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{75DD1D07-E7C2-4946-955C-BB3954855998}" uniqueName="13" name="rthrombus" queryTableFieldId="13"/>
-    <tableColumn id="3" xr3:uid="{E36DF14E-EF22-412C-84D5-E96AD9FF1305}" uniqueName="3" name="wthrombus" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{AF3B689D-663B-4B08-A858-98F0765E4234}" uniqueName="4" name="dissection" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{0FB1CCB4-26BD-4057-AD27-D3B19140E4F9}" uniqueName="5" name="rupture" queryTableFieldId="5"/>
+    <tableColumn id="1" xr3:uid="{C128ADB3-417E-4B33-B9AC-183C00C3BBF2}" name="pullback" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3D6EDBE2-1704-4CB9-8FA4-ED2A34B17FC7}" name="lumen" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{85D9E7B3-F999-4314-85EC-BBCB52496EF3}" name="guidewire" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{2539DB42-1562-4280-B0F3-A727C96420FD}" name="wall" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{A900E6A3-1793-48C5-8F67-E4C600780439}" name="lipid" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{734B0EEB-8837-40BE-813C-A788E002083C}" name="calcium" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{94B0780D-AAE2-4C61-8BBA-F9E614D0F10D}" name="media" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{7697724D-B627-4CF4-874C-27D754107670}" name="catheter " dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{B66D6827-A46E-4E14-BCE4-9ABB230D315F}" name="sidebranch" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{DE5BCFF8-5228-4E56-8FA5-C9059DDB0451}" name="rthrombus" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{398234A1-F3B6-483F-A686-53D001AEA431}" name="wthrombus" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{671E6709-7864-44EF-B8BA-EDA68F3BA772}" name="dissection" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B5138DD1-E1D8-40D0-8062-E69F345E2FC3}" name="rupture" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6081,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AD1015-D7A8-4F03-8F88-B7CFB2DFA92A}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6514,6 +7580,2190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270144C1-3A6D-45F4-898E-8210C964B146}">
+  <dimension ref="B3:F174"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(Table12[Model 1 2D])</f>
+        <v>0.66629741644766727</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(Table12[Model 2 2D])</f>
+        <v>0.75958190480402832</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(Table12[Model 3 2D])</f>
+        <v>0.76751693790125319</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E15">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F15">
+        <v>0.90109890109890112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16">
+        <v>0.89156626506024095</v>
+      </c>
+      <c r="E16">
+        <v>0.86746987951807231</v>
+      </c>
+      <c r="F16">
+        <v>0.84337349397590367</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18">
+        <v>0.9140625</v>
+      </c>
+      <c r="E18">
+        <v>0.92125984251968507</v>
+      </c>
+      <c r="F18">
+        <v>0.91633466135458164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.41791044776119401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20">
+        <v>0.92753623188405798</v>
+      </c>
+      <c r="E20">
+        <v>0.91970802919708028</v>
+      </c>
+      <c r="F20">
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21">
+        <v>0.97695852534562211</v>
+      </c>
+      <c r="E21">
+        <v>0.95145631067961167</v>
+      </c>
+      <c r="F21">
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22">
+        <v>0.99159663865546221</v>
+      </c>
+      <c r="E22">
+        <v>0.96137339055793991</v>
+      </c>
+      <c r="F22">
+        <v>0.97046413502109707</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23">
+        <v>0.85964912280701755</v>
+      </c>
+      <c r="E23">
+        <v>0.78899082568807344</v>
+      </c>
+      <c r="F23">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.27906976744186052</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31">
+        <v>0.91025641025641024</v>
+      </c>
+      <c r="E31">
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="F31">
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="F32">
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E34">
+        <v>0.88</v>
+      </c>
+      <c r="F34">
+        <v>0.59740259740259738</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39">
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="E39">
+        <v>0.99065420560747663</v>
+      </c>
+      <c r="F39">
+        <v>0.95145631067961167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E41">
+        <v>0.9859154929577465</v>
+      </c>
+      <c r="F41">
+        <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42">
+        <v>0.98395721925133695</v>
+      </c>
+      <c r="E42">
+        <v>0.98936170212765961</v>
+      </c>
+      <c r="F42">
+        <v>0.978494623655914</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44">
+        <v>0.73417721518987344</v>
+      </c>
+      <c r="E44">
+        <v>0.75</v>
+      </c>
+      <c r="F44">
+        <v>0.78980891719745228</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="F50">
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51">
+        <v>0.97674418604651159</v>
+      </c>
+      <c r="E51">
+        <v>0.96875</v>
+      </c>
+      <c r="F51">
+        <v>0.97674418604651159</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52">
+        <v>0.83597883597883593</v>
+      </c>
+      <c r="E52">
+        <v>0.9349112426035503</v>
+      </c>
+      <c r="F52">
+        <v>0.97530864197530864</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53">
+        <v>0.87769784172661869</v>
+      </c>
+      <c r="E53">
+        <v>0.89051094890510951</v>
+      </c>
+      <c r="F53">
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54">
+        <v>0.90540540540540537</v>
+      </c>
+      <c r="E54">
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="F54">
+        <v>0.91156462585034015</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55">
+        <v>0.64233576642335766</v>
+      </c>
+      <c r="E55">
+        <v>0.85</v>
+      </c>
+      <c r="F55">
+        <v>0.82051282051282048</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="E56">
+        <v>0.83211678832116787</v>
+      </c>
+      <c r="F56">
+        <v>0.83211678832116787</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E61">
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="F61">
+        <v>0.93913043478260871</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62">
+        <v>0.99224806201550386</v>
+      </c>
+      <c r="E62">
+        <v>0.97637795275590555</v>
+      </c>
+      <c r="F62">
+        <v>0.97637795275590555</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63">
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="E63">
+        <v>0.99047619047619051</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="E64">
+        <v>0.88372093023255816</v>
+      </c>
+      <c r="F64">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65">
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="E65">
+        <v>0.87323943661971826</v>
+      </c>
+      <c r="F65">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66">
+        <v>0.87931034482758619</v>
+      </c>
+      <c r="E66">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="F66">
+        <v>0.84684684684684686</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="E67">
+        <v>0.94623655913978499</v>
+      </c>
+      <c r="F67">
+        <v>0.94623655913978499</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68">
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="E68">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="F68">
+        <v>0.94594594594594594</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69">
+        <v>0.72340425531914898</v>
+      </c>
+      <c r="E69">
+        <v>0.76288659793814428</v>
+      </c>
+      <c r="F69">
+        <v>0.76288659793814428</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E71">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="F71">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72">
+        <v>0.99224806201550386</v>
+      </c>
+      <c r="E72">
+        <v>0.984375</v>
+      </c>
+      <c r="F72">
+        <v>0.99224806201550386</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73">
+        <v>0.98245614035087714</v>
+      </c>
+      <c r="E73">
+        <v>0.97391304347826091</v>
+      </c>
+      <c r="F73">
+        <v>0.9821428571428571</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83">
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="E83">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F83">
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84">
+        <v>0.9719626168224299</v>
+      </c>
+      <c r="E84">
+        <v>0.95575221238938057</v>
+      </c>
+      <c r="F84">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86">
+        <v>0.94857142857142862</v>
+      </c>
+      <c r="E86">
+        <v>0.94857142857142862</v>
+      </c>
+      <c r="F86">
+        <v>0.94857142857142862</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89">
+        <v>0.91489361702127658</v>
+      </c>
+      <c r="E89">
+        <v>0.87912087912087911</v>
+      </c>
+      <c r="F89">
+        <v>0.89130434782608692</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95">
+        <v>0.92553191489361697</v>
+      </c>
+      <c r="E95">
+        <v>0.94054054054054059</v>
+      </c>
+      <c r="F95">
+        <v>0.86206896551724133</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="F100">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104">
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="E104">
+        <v>0.97938144329896903</v>
+      </c>
+      <c r="F104">
+        <v>0.97938144329896903</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105">
+        <v>0.93264248704663211</v>
+      </c>
+      <c r="E105">
+        <v>0.92063492063492058</v>
+      </c>
+      <c r="F105">
+        <v>0.90816326530612246</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106">
+        <v>0.97354497354497349</v>
+      </c>
+      <c r="E106">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="F106">
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107">
+        <v>0.98522167487684731</v>
+      </c>
+      <c r="E107">
+        <v>0.97512437810945274</v>
+      </c>
+      <c r="F107">
+        <v>0.95431472081218272</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108">
+        <v>0.98412698412698407</v>
+      </c>
+      <c r="E108">
+        <v>0.95161290322580649</v>
+      </c>
+      <c r="F108">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109">
+        <v>6.4516129032258063E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115">
+        <v>0.52459016393442626</v>
+      </c>
+      <c r="E115">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F115">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" t="s">
+        <v>184</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="F117">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" t="s">
+        <v>185</v>
+      </c>
+      <c r="D118">
+        <v>0.94972067039106145</v>
+      </c>
+      <c r="E118">
+        <v>0.94972067039106145</v>
+      </c>
+      <c r="F118">
+        <v>0.9438202247191011</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119">
+        <v>0.72619047619047616</v>
+      </c>
+      <c r="E119">
+        <v>0.92207792207792205</v>
+      </c>
+      <c r="F119">
+        <v>0.96815286624203822</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120">
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="E120">
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="F120">
+        <v>0.73015873015873012</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121">
+        <v>0.7766323024054983</v>
+      </c>
+      <c r="E121">
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="F121">
+        <v>0.89795918367346939</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122">
+        <v>4.4444444444444453E-2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>193</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F123">
+        <v>0.82758620689655171</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125">
+        <v>0.90625</v>
+      </c>
+      <c r="E125">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="F125">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131">
+        <v>0.96</v>
+      </c>
+      <c r="E131">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="F131">
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132">
+        <v>0.83760683760683763</v>
+      </c>
+      <c r="E132">
+        <v>0.9494949494949495</v>
+      </c>
+      <c r="F132">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" t="s">
+        <v>188</v>
+      </c>
+      <c r="D133">
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="E133">
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="F133">
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134">
+        <v>0.91954022988505746</v>
+      </c>
+      <c r="E134">
+        <v>0.91954022988505746</v>
+      </c>
+      <c r="F134">
+        <v>0.89411764705882357</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" t="s">
+        <v>191</v>
+      </c>
+      <c r="D135">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.75862068965517238</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" t="s">
+        <v>215</v>
+      </c>
+      <c r="D136">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="E136">
+        <v>0.75</v>
+      </c>
+      <c r="F136">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" t="s">
+        <v>182</v>
+      </c>
+      <c r="D138">
+        <v>0.85490196078431369</v>
+      </c>
+      <c r="E138">
+        <v>0.859375</v>
+      </c>
+      <c r="F138">
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>91</v>
+      </c>
+      <c r="C139" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>91</v>
+      </c>
+      <c r="C140" t="s">
+        <v>192</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>91</v>
+      </c>
+      <c r="C141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D141">
+        <v>0.86192468619246865</v>
+      </c>
+      <c r="E141">
+        <v>0.96682464454976302</v>
+      </c>
+      <c r="F141">
+        <v>0.96261682242990654</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>91</v>
+      </c>
+      <c r="C142" t="s">
+        <v>216</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" t="s">
+        <v>183</v>
+      </c>
+      <c r="D143">
+        <v>0.84984025559105436</v>
+      </c>
+      <c r="E143">
+        <v>0.82736156351791534</v>
+      </c>
+      <c r="F143">
+        <v>0.69090909090909092</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" t="s">
+        <v>184</v>
+      </c>
+      <c r="D144">
+        <v>0.88172043010752688</v>
+      </c>
+      <c r="E144">
+        <v>0.99029126213592233</v>
+      </c>
+      <c r="F144">
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" t="s">
+        <v>185</v>
+      </c>
+      <c r="D145">
+        <v>0.97810218978102192</v>
+      </c>
+      <c r="E145">
+        <v>0.97810218978102192</v>
+      </c>
+      <c r="F145">
+        <v>0.98529411764705888</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E146">
+        <v>0.93203883495145634</v>
+      </c>
+      <c r="F146">
+        <v>0.91428571428571426</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" t="s">
+        <v>188</v>
+      </c>
+      <c r="D147">
+        <v>0.97584541062801933</v>
+      </c>
+      <c r="E147">
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="F147">
+        <v>0.9856459330143541</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" t="s">
+        <v>191</v>
+      </c>
+      <c r="D149">
+        <v>0.88311688311688308</v>
+      </c>
+      <c r="E149">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="F149">
+        <v>0.95121951219512191</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" t="s">
+        <v>193</v>
+      </c>
+      <c r="D150">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E150">
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" t="s">
+        <v>196</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>89</v>
+      </c>
+      <c r="C157" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>89</v>
+      </c>
+      <c r="C158" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>89</v>
+      </c>
+      <c r="C165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" t="s">
+        <v>189</v>
+      </c>
+      <c r="D167">
+        <v>0.81739130434782614</v>
+      </c>
+      <c r="E167">
+        <v>0.86238532110091748</v>
+      </c>
+      <c r="F167">
+        <v>0.90384615384615385</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" t="s">
+        <v>222</v>
+      </c>
+      <c r="D168">
+        <v>0.96124031007751942</v>
+      </c>
+      <c r="E168">
+        <v>0.93650793650793651</v>
+      </c>
+      <c r="F168">
+        <v>0.91056910569105687</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>89</v>
+      </c>
+      <c r="C169" t="s">
+        <v>190</v>
+      </c>
+      <c r="D169">
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="E169">
+        <v>0.79646017699115046</v>
+      </c>
+      <c r="F169">
+        <v>0.84745762711864403</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="s">
+        <v>223</v>
+      </c>
+      <c r="D170">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="E170">
+        <v>0.98969072164948457</v>
+      </c>
+      <c r="F170">
+        <v>0.96842105263157896</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="s">
+        <v>191</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D172">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="E172">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F172">
+        <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U60"/>
   <sheetViews>
@@ -9350,7 +12600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C3AAB7-6BB0-434D-BAB3-62E9823F4C12}">
   <dimension ref="A1:U37"/>
   <sheetViews>
@@ -10844,11 +14094,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09699A86-072B-423B-8284-85A2DD6AE3BE}">
   <dimension ref="A2:M92"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -14528,7 +17778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB8AC7-B825-46C8-A0AA-6BFAC3EB0764}">
   <dimension ref="A2:M37"/>
   <sheetViews>
@@ -15795,7 +19045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C2EB33-3671-48F5-A73C-C421462D3752}">
   <dimension ref="A2:M122"/>
   <sheetViews>
@@ -20703,12 +23953,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0388D2-F423-4A39-A9C4-62A397826041}">
   <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/metrics_build/metrics_models.xlsx
+++ b/metrics_build/metrics_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5062C84D-0E37-4D4F-9E96-21564EC39E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45906DC4-618C-447C-A662-CA075BEB5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview train" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="240">
   <si>
     <t>lumen</t>
   </si>
@@ -804,12 +804,30 @@
   <si>
     <t>Model 3 2D (pixel DICE)</t>
   </si>
+  <si>
+    <t>DICE model 1 2D</t>
+  </si>
+  <si>
+    <t>DICE model 2 2D</t>
+  </si>
+  <si>
+    <t>DICE model 3 2D</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +861,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -933,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -968,14 +993,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="75">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1917,10 +1942,54 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4050,6 +4119,413 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Calciu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>m arc DICEs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium arc DICEs'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frame level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium arc DICEs'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Model 1 2D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2 2D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3 2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium arc DICEs'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.31268239839087653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32031161653277729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62476000868807757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EF7-4129-889E-300FDA561534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium arc DICEs'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pullback level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium arc DICEs'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Model 1 2D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2 2D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3 2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium arc DICEs'!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45124168699999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49824186082029975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65880864486459478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EF7-4129-889E-300FDA561534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="629394063"/>
+        <c:axId val="629398863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="629394063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629398863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="629398863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629394063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4171,6 +4647,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6222,6 +6738,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6363,6 +7382,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE022B3-20A9-CE2B-E847-D55FA77493E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C2175F-665A-B135-B89C-9C624F42B381}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6554,7 +7614,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6D864E62-098E-4195-A0B5-CD4E5F137209}" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0">
   <autoFilter ref="A1:S4" xr:uid="{6D864E62-098E-4195-A0B5-CD4E5F137209}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{CB851FAA-C8DF-489C-B74F-A785522F1BAA}" name="Date " dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{CB851FAA-C8DF-489C-B74F-A785522F1BAA}" name="Date " dataDxfId="74"/>
     <tableColumn id="2" xr3:uid="{85F88159-E34A-4985-89CD-9634CE0918BE}" name="Nº patients"/>
     <tableColumn id="3" xr3:uid="{6ADEAA0E-4A60-4D02-B376-309CF4107C90}" name="Nº pullback"/>
     <tableColumn id="4" xr3:uid="{5FBB4B28-FE4D-4C7D-856F-93AFC1DE489B}" name="Nº frames"/>
@@ -6579,32 +7639,101 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}" name="Table5" displayName="Table5" ref="A4:M18" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A4:M18" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}" name="Table2" displayName="Table2" ref="A4:M18" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A4:M18" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C128ADB3-417E-4B33-B9AC-183C00C3BBF2}" name="pullback" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{3D6EDBE2-1704-4CB9-8FA4-ED2A34B17FC7}" name="lumen" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{85D9E7B3-F999-4314-85EC-BBCB52496EF3}" name="guidewire" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{2539DB42-1562-4280-B0F3-A727C96420FD}" name="wall" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{A900E6A3-1793-48C5-8F67-E4C600780439}" name="lipid" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{734B0EEB-8837-40BE-813C-A788E002083C}" name="calcium" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{94B0780D-AAE2-4C61-8BBA-F9E614D0F10D}" name="media" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7697724D-B627-4CF4-874C-27D754107670}" name="catheter " dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{B66D6827-A46E-4E14-BCE4-9ABB230D315F}" name="sidebranch" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{DE5BCFF8-5228-4E56-8FA5-C9059DDB0451}" name="rthrombus" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{398234A1-F3B6-483F-A686-53D001AEA431}" name="wthrombus" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{671E6709-7864-44EF-B8BA-EDA68F3BA772}" name="dissection" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B5138DD1-E1D8-40D0-8062-E69F345E2FC3}" name="rupture" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{316127D1-C863-4B75-9F74-072A0EE7405D}" name="pullback" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{9917C3EA-1C30-4BB0-91BC-48A2C3F8AFF5}" name="lumen" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{F37756C4-C13F-4ABC-8F21-0A72F1FA98D2}" name="guidewire" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{9A440BE1-2FCC-4C1C-916B-D894C470B6B7}" name="wall" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{90A106DF-CBBB-4E1B-9026-756AB13879A6}" name="lipid" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{70B62D4F-EAAA-46FD-994B-F4364B457A1D}" name="calcium" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{6CE2743C-C32C-4504-8C4F-E40C2027E306}" name="media" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{D3DEF3C0-1F65-406B-9D99-0DE216BEE211}" name="catheter" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{C7283D77-8600-4E6C-B317-9A59BCE8D515}" name="sidebranch" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{91A8B186-D5BD-4AE0-8C58-C229065A6C5C}" name="rthrombus" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{76A5940A-8A23-49C0-AF19-32FC5B8C6026}" name="wthrombus" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{024AC4E6-3A31-4405-9CFF-1C14722ED33B}" name="dissection" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{52163E12-701F-493C-A10C-56018D37AB50}" name="rupture" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB65BE29-0BD2-4730-BC3C-3E15BC3235E7}" name="new_dices_model1_test__212" displayName="new_dices_model1_test__212" ref="A23:M37" tableType="queryTable" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A23:M37" xr:uid="{AB65BE29-0BD2-4730-BC3C-3E15BC3235E7}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{D429D6CF-3715-4453-807D-F5172C56F9A5}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{E86BAE9D-B1C0-44A5-BA9A-65D342E617D4}" uniqueName="3" name="lumen" queryTableFieldId="3" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{BF3BAF55-6A20-4993-9E26-9863C60DC3FD}" uniqueName="4" name="guidewire" queryTableFieldId="4" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{DA9515EB-CF4F-40F4-83EC-3705A726AD32}" uniqueName="5" name="wall" queryTableFieldId="5" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{7BDF596F-0326-4765-86BE-FE46830462D7}" uniqueName="6" name="lipid" queryTableFieldId="6" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{A2A7F245-F961-4307-B32D-D2E3FD1E7D70}" uniqueName="7" name="calcium" queryTableFieldId="7" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{A674A59B-866E-43C8-A11C-BD3E7D1982F9}" uniqueName="8" name="media" queryTableFieldId="8" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{B6B9F9F4-D4D0-494B-946D-B7678EE2F883}" uniqueName="9" name="catheter" queryTableFieldId="9" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{2D500235-EC3A-4D0D-9549-3FC853DAC82D}" uniqueName="10" name="sidebranch" queryTableFieldId="10" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{9306ACAB-8372-4DAA-BF83-29A99AF32C65}" uniqueName="11" name="rthrombus" queryTableFieldId="11" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{91ADE48B-D8E3-4347-879A-C7753F204378}" uniqueName="12" name="wthrombus" queryTableFieldId="12" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{6D71478F-08A1-4481-B9A3-57DC7C253CD1}" uniqueName="13" name="dissection" queryTableFieldId="13" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{F4F574A0-082B-4DEE-934A-FC695C51B712}" uniqueName="14" name="rupture" queryTableFieldId="14" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{059FCDAB-5625-4273-9F79-C99522278EEB}" name="pullback_model_2_train" displayName="pullback_model_2_train" ref="A4:M92" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A4:M92" xr:uid="{059FCDAB-5625-4273-9F79-C99522278EEB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M92">
+    <sortCondition ref="A5:A92"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{80EDAEC6-61BE-4F8A-96B8-D66B574F3F34}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2A1EBF68-1BF0-40EF-9116-FBA244B1C9A5}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
+    <tableColumn id="6" xr3:uid="{9C2B8825-E482-4EB8-A8FE-E34846016B7E}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{0632FDC1-DE75-44F7-A6FF-79FB7EFE7103}" uniqueName="7" name="wall" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{7B9557F3-0A51-49AA-8D21-81C0C050D6EE}" uniqueName="8" name="lipid" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{AA6EB97F-6742-45C8-A22A-A82C3B81A8CC}" uniqueName="9" name="calcium" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{E24C6607-54DC-4A64-87E9-EABEEE221597}" uniqueName="10" name="media" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{A9CC8E1F-CEEF-4130-AFCC-CC8F141FA789}" uniqueName="11" name="catheter" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{E34D4B00-1ABF-4C35-856A-EB4655A67BE6}" uniqueName="12" name="sidebranch" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{3221D0E3-B959-4924-8712-7C07CDE0EDD9}" uniqueName="13" name="rthrombus" queryTableFieldId="13"/>
+    <tableColumn id="3" xr3:uid="{0B4C8ED3-A68E-4450-B080-FAD8A4CA229E}" uniqueName="3" name="wthrombus" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{02CEF05B-9FFD-4A52-B496-4E8A8D13028D}" uniqueName="4" name="dissection" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{952DBA1B-AA2D-4BBE-95AA-57DCA5EB7EB1}" uniqueName="5" name="rupture" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}" name="Table5" displayName="Table5" ref="A4:M18" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A4:M18" xr:uid="{9D78D90F-D671-45F9-8083-C98C9E669185}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{C128ADB3-417E-4B33-B9AC-183C00C3BBF2}" name="pullback" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3D6EDBE2-1704-4CB9-8FA4-ED2A34B17FC7}" name="lumen" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{85D9E7B3-F999-4314-85EC-BBCB52496EF3}" name="guidewire" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{2539DB42-1562-4280-B0F3-A727C96420FD}" name="wall" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{A900E6A3-1793-48C5-8F67-E4C600780439}" name="lipid" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{734B0EEB-8837-40BE-813C-A788E002083C}" name="calcium" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{94B0780D-AAE2-4C61-8BBA-F9E614D0F10D}" name="media" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{7697724D-B627-4CF4-874C-27D754107670}" name="catheter " dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{B66D6827-A46E-4E14-BCE4-9ABB230D315F}" name="sidebranch" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{DE5BCFF8-5228-4E56-8FA5-C9059DDB0451}" name="rthrombus" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{398234A1-F3B6-483F-A686-53D001AEA431}" name="wthrombus" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{671E6709-7864-44EF-B8BA-EDA68F3BA772}" name="dissection" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B5138DD1-E1D8-40D0-8062-E69F345E2FC3}" name="rupture" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E7E12A1-8F34-4AF3-8B13-96196DCD9A26}" name="new_dices7" displayName="new_dices7" ref="A23:M37" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A23:M37" xr:uid="{6E7E12A1-8F34-4AF3-8B13-96196DCD9A26}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{21E06DAB-8E73-4373-9140-F113D879C55E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{21E06DAB-8E73-4373-9140-F113D879C55E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{FD1A8E7D-0B27-4753-A527-103B34749DBD}" uniqueName="3" name="lumen" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{404989E0-DEDD-4007-8A8B-C02AF5E2BE8C}" uniqueName="4" name="guidewire" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B49E131F-4FD9-4FF3-90CE-4A5CAF514376}" uniqueName="5" name="wall" queryTableFieldId="5"/>
@@ -6622,14 +7751,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A829E09A-FDC0-46DF-8C77-A32E71E5EE82}" name="pullback_model_3_train" displayName="pullback_model_3_train" ref="A4:M122" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A4:M122" xr:uid="{A829E09A-FDC0-46DF-8C77-A32E71E5EE82}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M122">
     <sortCondition ref="A4:A122"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2C466B9F-3486-43EA-88F0-6B04382A3B98}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{2C466B9F-3486-43EA-88F0-6B04382A3B98}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A1CF0318-84A9-4B5A-B15E-4D0CD9BBF4D8}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
     <tableColumn id="6" xr3:uid="{B94F830C-04B5-4445-8263-9CF8B5334E60}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{8A853AF1-1B5E-44EC-93C7-36302562DA73}" uniqueName="7" name="wall" queryTableFieldId="7"/>
@@ -6647,11 +7776,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6EFEC896-A044-47E0-8A2C-2ADC0FD0C57A}" name="pullback_model_3_test" displayName="pullback_model_3_test" ref="A4:M18" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A4:M18" xr:uid="{6EFEC896-A044-47E0-8A2C-2ADC0FD0C57A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{EFF36B65-A573-4987-BD0F-B326BFCE2E1E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EFF36B65-A573-4987-BD0F-B326BFCE2E1E}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{1C58043E-829D-41FD-ADBD-840915C3F3DB}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
     <tableColumn id="6" xr3:uid="{7ABDCBE9-D904-45B3-9CAF-6DD2ED60C609}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{2B276962-CBA7-4EDF-9C61-0AC6A30D0944}" uniqueName="7" name="wall" queryTableFieldId="7"/>
@@ -6669,11 +7798,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{506D7047-A09F-4A76-AD3F-E3BA4190A045}" name="new_dices_model3_test__214" displayName="new_dices_model3_test__214" ref="A190:M204" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A190:M204" xr:uid="{506D7047-A09F-4A76-AD3F-E3BA4190A045}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1C088C25-3292-48C4-9DDB-BCD8282FC071}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1C088C25-3292-48C4-9DDB-BCD8282FC071}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{6CFFF739-226F-4791-A8B7-98C68EF75320}" uniqueName="3" name="lumen" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{0126F16A-CAB2-4DB8-92D9-7042B4ABF772}" uniqueName="4" name="guidewire" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{E5AD6AF6-0F74-49B2-BF2C-2C1A69E9FC33}" uniqueName="5" name="wall" queryTableFieldId="5"/>
@@ -6691,7 +7820,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{41294AB7-E512-4AE2-A9AA-B62DC65D2B38}" name="pullback_model_3_test16" displayName="pullback_model_3_test16" ref="A23:N185" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A23:N185" xr:uid="{41294AB7-E512-4AE2-A9AA-B62DC65D2B38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:N185">
@@ -6719,7 +7848,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}" name="Table4" displayName="Table4" ref="A1:O8" totalsRowShown="0" headerRowDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}" name="Table4" displayName="Table4" ref="A1:O8" totalsRowShown="0" headerRowDxfId="73">
   <autoFilter ref="A1:O8" xr:uid="{81CC4590-9284-4E59-8045-9B81F88C4B49}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{90A29A87-F39F-4144-92E9-53073D9307DE}" name="Name"/>
@@ -6755,7 +7884,7 @@
     <tableColumn id="3" xr3:uid="{82B69281-609F-4510-BE3A-F60F54D0F5AA}" name="Model 1 2D"/>
     <tableColumn id="4" xr3:uid="{487FFC4C-61D9-4AC7-93E1-3162EC3B45E6}" name="Model 2 2D"/>
     <tableColumn id="5" xr3:uid="{7C761E9B-B7E8-4A92-BAE5-9970F33EEA64}" name="Model 3 2D"/>
-    <tableColumn id="6" xr3:uid="{43798A2E-3C56-45E2-8516-AB232C3A43DE}" name="Model 3 2D (pixel DICE)" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{43798A2E-3C56-45E2-8516-AB232C3A43DE}" name="Model 3 2D (pixel DICE)" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6766,10 +7895,10 @@
   <autoFilter ref="B3:D6" xr:uid="{08A1FE8D-303F-4825-902E-F8F49FD47607}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0A9360EA-C5E5-4966-BB47-6EDB93EE8BE5}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F7AEA2C2-92AD-476D-A404-F330557EBF90}" name="Frame level" dataDxfId="68">
+    <tableColumn id="2" xr3:uid="{F7AEA2C2-92AD-476D-A404-F330557EBF90}" name="Frame level" dataDxfId="71">
       <calculatedColumnFormula>AVERAGE(Table12[Model 3 2D])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{63A8F5A4-B081-4945-AFA7-5E6B8BDDA9BF}" name="Pullback level" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{63A8F5A4-B081-4945-AFA7-5E6B8BDDA9BF}" name="Pullback level" dataDxfId="70">
       <calculatedColumnFormula>AVERAGE(Table10[Model 2 2D])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6791,91 +7920,65 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}" name="Table1" displayName="Table1" ref="A4:M60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A4:M60" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E9A2664F-949A-461C-8632-250D14F2C760}" name="pullback" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{81AEE817-74D0-4CC5-A299-1597C836BDBE}" name="lumen" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{CC602F98-37A3-4361-A848-D4CBB9948033}" name="guidewire" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{CA810748-2336-49F3-A8D0-2B7B9306BAF9}" name="wall" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{8DFD2D26-06D4-47D5-9BAC-FB0E075CF24D}" name="lipid" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{98114F9F-8129-46BC-B902-B4802F5C3F62}" name="calcium" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{A5277F3D-4D0C-4DCD-9B04-F78B100B7B46}" name="media" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{B278FC61-31A9-46DA-8014-B1A03111CBE1}" name="catheter" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{34BCDEB6-E89F-4CEA-A102-13F76A35F32B}" name="sidebranch" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{3E093B54-A5C8-4AA5-AC76-8E77A7F90417}" name="rthrombus" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{06AD8942-98FD-4AD4-978C-773935D494DD}" name="wthrombus" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{89DFF757-FFCD-4EF8-B173-ECCA43FEFCDA}" name="dissection" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{937B4B65-7E4A-40CE-915C-BC92DE18744F}" name="rupture" dataDxfId="52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F8E6ECC7-7CC1-4EE8-A464-E36BE3F9D273}" name="Table1417" displayName="Table1417" ref="B3:D6" totalsRowShown="0">
+  <autoFilter ref="B3:D6" xr:uid="{F8E6ECC7-7CC1-4EE8-A464-E36BE3F9D273}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F669B771-1A98-45A4-85C9-B59E8166AE98}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{92053642-36B2-4F75-9200-BF4B9F7A38B8}" name="Frame level" dataDxfId="69">
+      <calculatedColumnFormula>AVERAGE(Table17[DICE model 1 2D])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{6D4A4A6A-BB4B-453A-8A01-80862A9EC5FE}" name="Pullback level" dataDxfId="68">
+      <calculatedColumnFormula>AVERAGE(Table18[Model 1])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}" name="Table2" displayName="Table2" ref="A4:M18" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="A4:M18" xr:uid="{52C4F2D2-09FC-44CE-B00C-2FA6ABF87677}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{316127D1-C863-4B75-9F74-072A0EE7405D}" name="pullback" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{9917C3EA-1C30-4BB0-91BC-48A2C3F8AFF5}" name="lumen" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{F37756C4-C13F-4ABC-8F21-0A72F1FA98D2}" name="guidewire" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{9A440BE1-2FCC-4C1C-916B-D894C470B6B7}" name="wall" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{90A106DF-CBBB-4E1B-9026-756AB13879A6}" name="lipid" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{70B62D4F-EAAA-46FD-994B-F4364B457A1D}" name="calcium" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{6CE2743C-C32C-4504-8C4F-E40C2027E306}" name="media" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{D3DEF3C0-1F65-406B-9D99-0DE216BEE211}" name="catheter" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{C7283D77-8600-4E6C-B317-9A59BCE8D515}" name="sidebranch" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{91A8B186-D5BD-4AE0-8C58-C229065A6C5C}" name="rthrombus" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{76A5940A-8A23-49C0-AF19-32FC5B8C6026}" name="wthrombus" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{024AC4E6-3A31-4405-9CFF-1C14722ED33B}" name="dissection" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{52163E12-701F-493C-A10C-56018D37AB50}" name="rupture" dataDxfId="37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A4234D79-27D5-45EB-824C-AD9B2FEE8293}" name="Table17" displayName="Table17" ref="B17:F179" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
+  <autoFilter ref="B17:F179" xr:uid="{A4234D79-27D5-45EB-824C-AD9B2FEE8293}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A019B451-6079-44A1-A1A6-7FF6100ED4F3}" name="pullback"/>
+    <tableColumn id="2" xr3:uid="{22A96B24-F973-4B3A-BFAA-C1E8E09D02D7}" name="frame"/>
+    <tableColumn id="3" xr3:uid="{0F3A0355-7E2B-44AA-9422-F0BCD340A0E9}" name="DICE model 1 2D"/>
+    <tableColumn id="4" xr3:uid="{F8E327FE-EFF5-4B07-B683-2D17B94E1247}" name="DICE model 2 2D"/>
+    <tableColumn id="5" xr3:uid="{D11A22F2-9311-4BF6-9BAB-C2A9EF9F2CA7}" name="DICE model 3 2D"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB65BE29-0BD2-4730-BC3C-3E15BC3235E7}" name="new_dices_model1_test__212" displayName="new_dices_model1_test__212" ref="A23:M37" tableType="queryTable" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A23:M37" xr:uid="{AB65BE29-0BD2-4730-BC3C-3E15BC3235E7}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D429D6CF-3715-4453-807D-F5172C56F9A5}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{E86BAE9D-B1C0-44A5-BA9A-65D342E617D4}" uniqueName="3" name="lumen" queryTableFieldId="3" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{BF3BAF55-6A20-4993-9E26-9863C60DC3FD}" uniqueName="4" name="guidewire" queryTableFieldId="4" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{DA9515EB-CF4F-40F4-83EC-3705A726AD32}" uniqueName="5" name="wall" queryTableFieldId="5" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{7BDF596F-0326-4765-86BE-FE46830462D7}" uniqueName="6" name="lipid" queryTableFieldId="6" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{A2A7F245-F961-4307-B32D-D2E3FD1E7D70}" uniqueName="7" name="calcium" queryTableFieldId="7" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{A674A59B-866E-43C8-A11C-BD3E7D1982F9}" uniqueName="8" name="media" queryTableFieldId="8" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{B6B9F9F4-D4D0-494B-946D-B7678EE2F883}" uniqueName="9" name="catheter" queryTableFieldId="9" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{2D500235-EC3A-4D0D-9549-3FC853DAC82D}" uniqueName="10" name="sidebranch" queryTableFieldId="10" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{9306ACAB-8372-4DAA-BF83-29A99AF32C65}" uniqueName="11" name="rthrombus" queryTableFieldId="11" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{91ADE48B-D8E3-4347-879A-C7753F204378}" uniqueName="12" name="wthrombus" queryTableFieldId="12" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{6D71478F-08A1-4481-B9A3-57DC7C253CD1}" uniqueName="13" name="dissection" queryTableFieldId="13" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{F4F574A0-082B-4DEE-934A-FC695C51B712}" uniqueName="14" name="rupture" queryTableFieldId="14" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{1A840BA6-F589-47DA-934F-78EDA74837AC}" name="Table18" displayName="Table18" ref="J20:M34" totalsRowShown="0">
+  <autoFilter ref="J20:M34" xr:uid="{1A840BA6-F589-47DA-934F-78EDA74837AC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{46E1CE43-DDB1-4145-8F77-5003A4E996D8}" name="pullback"/>
+    <tableColumn id="2" xr3:uid="{4AD1AB85-DB04-4615-812D-060CDA56CF0E}" name="Model 1"/>
+    <tableColumn id="3" xr3:uid="{EB250610-59BF-4740-A785-5871FED41AB0}" name="Model 2"/>
+    <tableColumn id="4" xr3:uid="{87E18687-4F3E-460A-8CF3-D61762702D6D}" name="Model 3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{059FCDAB-5625-4273-9F79-C99522278EEB}" name="pullback_model_2_train" displayName="pullback_model_2_train" ref="A4:M92" tableType="queryTable" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A4:M92" xr:uid="{059FCDAB-5625-4273-9F79-C99522278EEB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M92">
-    <sortCondition ref="A5:A92"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}" name="Table1" displayName="Table1" ref="A4:M60" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A4:M60" xr:uid="{D15304CF-BB86-42C0-9E49-357D468360CB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{80EDAEC6-61BE-4F8A-96B8-D66B574F3F34}" uniqueName="1" name="pullback" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{2A1EBF68-1BF0-40EF-9116-FBA244B1C9A5}" uniqueName="2" name="lumen" queryTableFieldId="2"/>
-    <tableColumn id="6" xr3:uid="{9C2B8825-E482-4EB8-A8FE-E34846016B7E}" uniqueName="6" name="guidewire" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{0632FDC1-DE75-44F7-A6FF-79FB7EFE7103}" uniqueName="7" name="wall" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{7B9557F3-0A51-49AA-8D21-81C0C050D6EE}" uniqueName="8" name="lipid" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{AA6EB97F-6742-45C8-A22A-A82C3B81A8CC}" uniqueName="9" name="calcium" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E24C6607-54DC-4A64-87E9-EABEEE221597}" uniqueName="10" name="media" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{A9CC8E1F-CEEF-4130-AFCC-CC8F141FA789}" uniqueName="11" name="catheter" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{E34D4B00-1ABF-4C35-856A-EB4655A67BE6}" uniqueName="12" name="sidebranch" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{3221D0E3-B959-4924-8712-7C07CDE0EDD9}" uniqueName="13" name="rthrombus" queryTableFieldId="13"/>
-    <tableColumn id="3" xr3:uid="{0B4C8ED3-A68E-4450-B080-FAD8A4CA229E}" uniqueName="3" name="wthrombus" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{02CEF05B-9FFD-4A52-B496-4E8A8D13028D}" uniqueName="4" name="dissection" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{952DBA1B-AA2D-4BBE-95AA-57DCA5EB7EB1}" uniqueName="5" name="rupture" queryTableFieldId="5"/>
+    <tableColumn id="1" xr3:uid="{E9A2664F-949A-461C-8632-250D14F2C760}" name="pullback" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{81AEE817-74D0-4CC5-A299-1597C836BDBE}" name="lumen" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{CC602F98-37A3-4361-A848-D4CBB9948033}" name="guidewire" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{CA810748-2336-49F3-A8D0-2B7B9306BAF9}" name="wall" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{8DFD2D26-06D4-47D5-9BAC-FB0E075CF24D}" name="lipid" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{98114F9F-8129-46BC-B902-B4802F5C3F62}" name="calcium" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{A5277F3D-4D0C-4DCD-9B04-F78B100B7B46}" name="media" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{B278FC61-31A9-46DA-8014-B1A03111CBE1}" name="catheter" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{34BCDEB6-E89F-4CEA-A102-13F76A35F32B}" name="sidebranch" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{3E093B54-A5C8-4AA5-AC76-8E77A7F90417}" name="rthrombus" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{06AD8942-98FD-4AD4-978C-773935D494DD}" name="wthrombus" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{89DFF757-FFCD-4EF8-B173-ECCA43FEFCDA}" name="dissection" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{937B4B65-7E4A-40CE-915C-BC92DE18744F}" name="rupture" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15930,7 +17033,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16418,8 +17521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270144C1-3A6D-45F4-898E-8210C964B146}">
   <dimension ref="B3:M182"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19290,15 +20393,2056 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3192FBA9-5690-4D30-920E-4EB44CF6FB94}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:M179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(Table17[DICE model 1 2D])</f>
+        <v>0.31268239839087653</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(Table18[Model 1])</f>
+        <v>0.45124168699999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(Table17[DICE model 2 2D])</f>
+        <v>0.32031161653277729</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(Table18[Model 2])</f>
+        <v>0.49824186082029975</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(Table17[DICE model 3 2D])</f>
+        <v>0.62476000868807757</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(Table18[Model 3])</f>
+        <v>0.65880864486459478</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L20" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21">
+        <v>0.72463768100000003</v>
+      </c>
+      <c r="L21">
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="M21">
+        <v>0.79452054794520544</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23">
+        <v>0.37168141599999999</v>
+      </c>
+      <c r="L23">
+        <v>0.40366972477064222</v>
+      </c>
+      <c r="M23">
+        <v>0.70769230769230773</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24">
+        <v>0.87394958</v>
+      </c>
+      <c r="L24">
+        <v>0.87399463806970512</v>
+      </c>
+      <c r="M24">
+        <v>0.89617486338797814</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25">
+        <v>0.96296296299999995</v>
+      </c>
+      <c r="L25">
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="M25">
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26">
+        <v>0.40277777799999998</v>
+      </c>
+      <c r="L26">
+        <v>0.76567656765676573</v>
+      </c>
+      <c r="M26">
+        <v>0.88389513108614237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27">
+        <v>6.6152149999999998E-3</v>
+      </c>
+      <c r="L27">
+        <v>5.3050397877984082E-3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>0.25806451600000002</v>
+      </c>
+      <c r="L29">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="M29">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M30">
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="E31">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="F31">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31">
+        <v>0.72388059699999996</v>
+      </c>
+      <c r="L31">
+        <v>0.78518518518518521</v>
+      </c>
+      <c r="M31">
+        <v>0.87242798353909468</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32">
+        <v>0.592592593</v>
+      </c>
+      <c r="L32">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="M32">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>199</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34">
+        <v>0.94897959200000004</v>
+      </c>
+      <c r="L34">
+        <v>0.94358974358974357</v>
+      </c>
+      <c r="M34">
+        <v>0.95431472081218272</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42">
+        <v>0.59154929577464788</v>
+      </c>
+      <c r="E42">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F42">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54">
+        <v>0.96</v>
+      </c>
+      <c r="E54">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="F54">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55">
+        <v>0.98412698412698407</v>
+      </c>
+      <c r="E55">
+        <v>0.96875</v>
+      </c>
+      <c r="F55">
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="E56">
+        <v>0.80597014925373134</v>
+      </c>
+      <c r="F56">
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="E57">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F57">
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.82442748091603058</v>
+      </c>
+      <c r="F61">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66">
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="E66">
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="F66">
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="E69">
+        <v>0.98795180722891562</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="E70">
+        <v>0.79629629629629628</v>
+      </c>
+      <c r="F70">
+        <v>0.83636363636363631</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E74">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82">
+        <v>4.3478260869565223E-2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>2.1739130434782612E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86">
+        <v>1.886792452830189E-2</v>
+      </c>
+      <c r="E86">
+        <v>1.9047619047619049E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>188</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" t="s">
+        <v>193</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E113">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F113">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" t="s">
+        <v>188</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F118">
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E120">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="F120">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" t="s">
+        <v>187</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>188</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E125">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="F125">
+        <v>0.75862068965517238</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E126">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="F126">
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E128">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="F128">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E130">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F130">
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" t="s">
+        <v>188</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" t="s">
+        <v>189</v>
+      </c>
+      <c r="D137">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E137">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F137">
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>88</v>
+      </c>
+      <c r="C138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>88</v>
+      </c>
+      <c r="C139" t="s">
+        <v>193</v>
+      </c>
+      <c r="D139">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" t="s">
+        <v>194</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" t="s">
+        <v>218</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>91</v>
+      </c>
+      <c r="C152" t="s">
+        <v>191</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" t="s">
+        <v>194</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>89</v>
+      </c>
+      <c r="C157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>89</v>
+      </c>
+      <c r="C158" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>89</v>
+      </c>
+      <c r="C165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>89</v>
+      </c>
+      <c r="C169" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="s">
+        <v>225</v>
+      </c>
+      <c r="D173">
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="E173">
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="F173">
+        <v>0.98666666666666669</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174">
+        <v>0.90140845070422537</v>
+      </c>
+      <c r="E174">
+        <v>0.90140845070422537</v>
+      </c>
+      <c r="F174">
+        <v>0.90140845070422537</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" t="s">
+        <v>194</v>
+      </c>
+      <c r="D176">
+        <v>0.96</v>
+      </c>
+      <c r="E176">
+        <v>0.93877551020408168</v>
+      </c>
+      <c r="F176">
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>89</v>
+      </c>
+      <c r="C177" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/metrics_build/metrics_models.xlsx
+++ b/metrics_build/metrics_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45906DC4-618C-447C-A662-CA075BEB5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2EDC1-391E-4CC2-8B37-E355463D1512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview train" sheetId="2" r:id="rId1"/>
@@ -8271,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA23CB-B751-4FDE-81A8-35F4E0666855}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17033,7 +17033,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D1" sqref="D1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17521,8 +17521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270144C1-3A6D-45F4-898E-8210C964B146}">
   <dimension ref="B3:M182"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20395,7 +20395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3192FBA9-5690-4D30-920E-4EB44CF6FB94}">
   <dimension ref="B3:M179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -22450,8 +22450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
